--- a/xforms/xlsforms/location_details.xlsx
+++ b/xforms/xlsforms/location_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125" tabRatio="272"/>
+    <workbookView windowWidth="28695" windowHeight="12855" tabRatio="272"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="C73" authorId="0">
+    <comment ref="C80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="0">
+    <comment ref="B59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0">
+    <comment ref="B37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397">
   <si>
     <t>type</t>
   </si>
@@ -237,13 +237,13 @@
     <t>11. Perm Id do Chefe de Substituto</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>note1</t>
-  </si>
-  <si>
-    <t>A seguir perguntas sobre: Caracteristícas e Condições da Habitação</t>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>sec1</t>
+  </si>
+  <si>
+    <t>A seguir perguntas da Secção 1: Caracteristícas e Condições da Habitação</t>
   </si>
   <si>
     <t>select_one houseno_locations</t>
@@ -384,10 +384,13 @@
     <t>Digite correctamente os numeros de telefone, caso não saiba coloque 88, se recusarem a responder coloque 99</t>
   </si>
   <si>
-    <t>note2</t>
-  </si>
-  <si>
-    <t>A seguir perguntas sobre: Caracteristícas da cozinha</t>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>sec2</t>
+  </si>
+  <si>
+    <t>A seguir perguntas da Secção 2: Caracteristícas da cozinha</t>
   </si>
   <si>
     <t>select_one sim_nao_recusa</t>
@@ -459,10 +462,19 @@
     <t>${iluminationFuel}=98</t>
   </si>
   <si>
-    <t>note3</t>
-  </si>
-  <si>
-    <t>A seguir perguntas sobre: Água de Uso Doméstico e sua Conservação</t>
+    <t>hasSec3</t>
+  </si>
+  <si>
+    <t>25.0 Pretende Colher a Secção 3: Água de Uso Doméstico e sua Conservação</t>
+  </si>
+  <si>
+    <t>sec3</t>
+  </si>
+  <si>
+    <t>A seguir perguntas da Secção 3: Água de Uso Doméstico e sua Conservação</t>
+  </si>
+  <si>
+    <t>${hasSec3}=1</t>
   </si>
   <si>
     <t>isWaterSrcInside</t>
@@ -621,10 +633,19 @@
     <t>O formato do valor deve ser XXXX (no max 9999mt)</t>
   </si>
   <si>
-    <t>note4</t>
-  </si>
-  <si>
-    <t>A seguir perguntas sobre: Caracteristícas de saneamento ao nivel do agregado</t>
+    <t>hasSec4</t>
+  </si>
+  <si>
+    <t>33.0. Pretende Colher a Secção 4: Caracteristícas de saneamento ao nivel do agregado</t>
+  </si>
+  <si>
+    <t>sec4</t>
+  </si>
+  <si>
+    <t>A seguir perguntas da Secção 4: Caracteristícas de saneamento ao nivel do agregado</t>
+  </si>
+  <si>
+    <t>${hasSec4}=1</t>
   </si>
   <si>
     <t>hasLatrine</t>
@@ -711,10 +732,19 @@
     <t>${hasLatrine}=2</t>
   </si>
   <si>
-    <t>note5</t>
-  </si>
-  <si>
-    <t>A seguir perguntas sobre: Gestão do Lixo Doméstico</t>
+    <t>hasSec5</t>
+  </si>
+  <si>
+    <t>41.0. Pretende Colher a Secção 5: Gestão do Lixo Doméstico</t>
+  </si>
+  <si>
+    <t>sec5</t>
+  </si>
+  <si>
+    <t>A seguir perguntas da Secção 5: Gestão do Lixo Doméstico</t>
+  </si>
+  <si>
+    <t>${hasSec5}=1</t>
   </si>
   <si>
     <t xml:space="preserve">select_one trashDeposits
@@ -1252,11 +1282,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1265,6 +1295,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1283,10 +1319,24 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1308,11 +1358,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1323,72 +1373,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1407,17 +1396,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1429,9 +1412,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1466,7 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,7 +1546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,13 +1564,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,7 +1606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,13 +1624,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,43 +1660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,13 +1684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,19 +1696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,24 +1708,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1754,6 +1804,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1779,17 +1842,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1819,40 +1882,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1867,153 +1906,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2194,34 +2257,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2245,13 +2317,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2261,16 +2330,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2282,13 +2348,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2297,7 +2375,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,12 +2384,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2321,36 +2426,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2363,10 +2453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2784,25 +2871,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="26.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="100.714285714286" style="70" customWidth="1"/>
-    <col min="4" max="4" width="93" style="70" customWidth="1"/>
-    <col min="5" max="5" width="26.4285714285714" style="70" customWidth="1"/>
+    <col min="3" max="3" width="50" style="73" customWidth="1"/>
+    <col min="4" max="4" width="93" style="73" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" style="73" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="11" style="70" customWidth="1"/>
+    <col min="7" max="7" width="11" style="73" customWidth="1"/>
     <col min="8" max="8" width="13.5714285714286" customWidth="1"/>
     <col min="9" max="9" width="12.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="7.85714285714286" customWidth="1"/>
@@ -2819,705 +2906,690 @@
   </cols>
   <sheetData>
     <row r="1" s="57" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="74" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" s="58" customFormat="1" ht="18" customHeight="1" spans="1:19">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
     </row>
     <row r="3" s="58" customFormat="1" ht="15.75" customHeight="1" spans="1:19">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
     </row>
     <row r="4" s="58" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
     </row>
     <row r="5" s="58" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
     </row>
     <row r="6" s="59" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
     </row>
     <row r="7" s="59" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
     </row>
     <row r="8" s="59" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
     </row>
     <row r="9" s="59" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
     </row>
     <row r="10" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="91" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
     </row>
     <row r="11" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
     </row>
     <row r="12" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
     </row>
     <row r="13" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
     </row>
     <row r="14" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="73" t="s">
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
+      <c r="L14" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
     </row>
     <row r="15" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="73" t="s">
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-    </row>
-    <row r="16" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A16" s="77" t="s">
+      <c r="L15" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+    </row>
+    <row r="16" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A16" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" s="61" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="96" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="83"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
     </row>
     <row r="18" s="61" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="96" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="83"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
     </row>
     <row r="19" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74" t="s">
+      <c r="E19" s="77"/>
+      <c r="F19" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
+      <c r="H19" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
     </row>
     <row r="20" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84" t="s">
+      <c r="E20" s="85"/>
+      <c r="F20" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
     </row>
     <row r="21" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
+      <c r="H21" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="91" t="b">
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="95" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
-      <c r="L22" s="83"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="42"/>
       <c r="N22" s="42"/>
       <c r="O22" s="42"/>
@@ -3527,244 +3599,244 @@
       <c r="S22" s="42"/>
     </row>
     <row r="23" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
     </row>
     <row r="24" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="83" t="s">
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
     </row>
     <row r="25" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
     </row>
     <row r="26" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="83" t="s">
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
     </row>
     <row r="27" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
     </row>
     <row r="28" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="83" t="s">
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
     </row>
     <row r="29" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
     </row>
     <row r="30" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="83" t="s">
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
     </row>
     <row r="31" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A31" s="25" t="s">
@@ -3773,13 +3845,13 @@
       <c r="B31" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="89"/>
+      <c r="E31" s="90"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25" t="b">
@@ -3796,1547 +3868,1636 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
     </row>
-    <row r="32" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A32" s="77" t="s">
+    <row r="32" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A32" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="92"/>
+      <c r="E32" s="92"/>
+    </row>
+    <row r="33" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A33" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B33" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="G33" s="81"/>
+    </row>
+    <row r="34" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A34" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+    </row>
+    <row r="35" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A35" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+    </row>
+    <row r="36" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A36" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+    </row>
+    <row r="37" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A37" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+    </row>
+    <row r="38" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A38" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+    </row>
+    <row r="39" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A39" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+    </row>
+    <row r="40" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A40" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+    </row>
+    <row r="41" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A41" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+    </row>
+    <row r="42" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A42" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-    </row>
-    <row r="33" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A33" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-    </row>
-    <row r="34" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A34" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-    </row>
-    <row r="35" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A35" s="83" t="s">
+      <c r="C42" s="92"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="G42" s="81"/>
+    </row>
+    <row r="43" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A43" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-    </row>
-    <row r="36" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A36" s="83" t="s">
+      <c r="B43" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="G43" s="85"/>
+    </row>
+    <row r="44" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+      <c r="A44" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="K44" s="60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A45" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="83"/>
-    </row>
-    <row r="37" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A37" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
-    </row>
-    <row r="38" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A38" s="91" t="s">
+      <c r="B45" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+    </row>
+    <row r="46" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A46" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="95"/>
+    </row>
+    <row r="47" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A47" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
-    </row>
-    <row r="39" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A39" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-    </row>
-    <row r="40" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A40" s="73" t="s">
+      <c r="B47" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="65"/>
+    </row>
+    <row r="48" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A48" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="98"/>
+      <c r="S48" s="98"/>
+    </row>
+    <row r="49" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A49" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
-    </row>
-    <row r="41" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A41" s="77" t="s">
+      <c r="B49" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
+    </row>
+    <row r="50" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A50" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="65"/>
+      <c r="S50" s="65"/>
+    </row>
+    <row r="51" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A51" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="65"/>
+    </row>
+    <row r="52" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A52" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+    </row>
+    <row r="53" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A53" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="85"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+    </row>
+    <row r="54" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A54" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="107"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="L54" s="101"/>
+      <c r="M54" s="101"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="101"/>
+      <c r="P54" s="101"/>
+      <c r="Q54" s="101"/>
+      <c r="R54" s="101"/>
+      <c r="S54" s="101"/>
+    </row>
+    <row r="55" s="68" customFormat="1" ht="17" customHeight="1" spans="1:19">
+      <c r="A55" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="104"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="102"/>
+      <c r="R55" s="102"/>
+      <c r="S55" s="102"/>
+    </row>
+    <row r="56" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A56" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="104"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="L56" s="102"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="102"/>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="102"/>
+      <c r="S56" s="102"/>
+    </row>
+    <row r="57" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A57" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="85"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+    </row>
+    <row r="58" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A58" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="85"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
+    </row>
+    <row r="59" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A59" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="85"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+    </row>
+    <row r="60" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A60" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="100"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+    </row>
+    <row r="61" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A61" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="H61" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="65"/>
+    </row>
+    <row r="62" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A62" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="110"/>
+    </row>
+    <row r="63" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A63" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="112"/>
+    </row>
+    <row r="64" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+      <c r="A64" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="77"/>
-      <c r="S41" s="77"/>
-    </row>
-    <row r="42" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A42" s="73" t="s">
+      <c r="B64" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="K64" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A65" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-    </row>
-    <row r="43" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A43" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="105" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="91"/>
-      <c r="S43" s="91"/>
-    </row>
-    <row r="44" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A44" s="83" t="s">
+      <c r="B65" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="L65" s="76"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="76"/>
+      <c r="O65" s="76"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="76"/>
+      <c r="S65" s="76"/>
+    </row>
+    <row r="66" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A66" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="L66" s="76"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
+      <c r="O66" s="114"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="114"/>
+      <c r="R66" s="114"/>
+      <c r="S66" s="114"/>
+    </row>
+    <row r="67" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A67" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="98"/>
+      <c r="J67" s="98"/>
+      <c r="K67" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="L67" s="65"/>
+      <c r="M67" s="98"/>
+      <c r="N67" s="98"/>
+      <c r="O67" s="98"/>
+      <c r="P67" s="98"/>
+      <c r="Q67" s="98"/>
+      <c r="R67" s="98"/>
+      <c r="S67" s="98"/>
+    </row>
+    <row r="68" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A68" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="L68" s="65"/>
+      <c r="M68" s="126"/>
+      <c r="N68" s="126"/>
+      <c r="O68" s="126"/>
+      <c r="P68" s="126"/>
+      <c r="Q68" s="126"/>
+      <c r="R68" s="126"/>
+      <c r="S68" s="126"/>
+    </row>
+    <row r="69" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A69" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="117"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="L69" s="65"/>
+      <c r="M69" s="126"/>
+      <c r="N69" s="126"/>
+      <c r="O69" s="126"/>
+      <c r="P69" s="126"/>
+      <c r="Q69" s="126"/>
+      <c r="R69" s="126"/>
+      <c r="S69" s="126"/>
+    </row>
+    <row r="70" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A70" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="117"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="L70" s="65"/>
+      <c r="M70" s="126"/>
+      <c r="N70" s="126"/>
+      <c r="O70" s="126"/>
+      <c r="P70" s="126"/>
+      <c r="Q70" s="126"/>
+      <c r="R70" s="126"/>
+      <c r="S70" s="126"/>
+    </row>
+    <row r="71" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A71" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="117"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="126"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="L71" s="65"/>
+      <c r="M71" s="126"/>
+      <c r="N71" s="126"/>
+      <c r="O71" s="126"/>
+      <c r="P71" s="126"/>
+      <c r="Q71" s="126"/>
+      <c r="R71" s="126"/>
+      <c r="S71" s="126"/>
+    </row>
+    <row r="72" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A72" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="117"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="126"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="L72" s="65"/>
+      <c r="M72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="126"/>
+      <c r="P72" s="126"/>
+      <c r="Q72" s="126"/>
+      <c r="R72" s="126"/>
+      <c r="S72" s="126"/>
+    </row>
+    <row r="73" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A73" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="60"/>
+      <c r="C73" s="118"/>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="121"/>
+      <c r="K73" s="121"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="121"/>
+      <c r="N73" s="121"/>
+      <c r="O73" s="121"/>
+      <c r="P73" s="121"/>
+      <c r="Q73" s="121"/>
+      <c r="R73" s="121"/>
+      <c r="S73" s="121"/>
+    </row>
+    <row r="74" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A74" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="98"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="98"/>
+      <c r="N74" s="98"/>
+      <c r="O74" s="98"/>
+      <c r="P74" s="98"/>
+      <c r="Q74" s="98"/>
+      <c r="R74" s="98"/>
+      <c r="S74" s="98"/>
+    </row>
+    <row r="75" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A75" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="121"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="121"/>
+      <c r="K75" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="L75" s="60"/>
+      <c r="M75" s="121"/>
+      <c r="N75" s="121"/>
+      <c r="O75" s="121"/>
+      <c r="P75" s="121"/>
+      <c r="Q75" s="121"/>
+      <c r="R75" s="121"/>
+      <c r="S75" s="121"/>
+    </row>
+    <row r="76" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A76" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="126"/>
+      <c r="N76" s="126"/>
+      <c r="O76" s="126"/>
+      <c r="P76" s="126"/>
+      <c r="Q76" s="126"/>
+      <c r="R76" s="126"/>
+      <c r="S76" s="126"/>
+    </row>
+    <row r="77" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A77" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="83"/>
-    </row>
-    <row r="45" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A45" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="93"/>
-    </row>
-    <row r="46" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A46" s="83" t="s">
+      <c r="B77" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="117"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="L77" s="65"/>
+      <c r="M77" s="126"/>
+      <c r="N77" s="126"/>
+      <c r="O77" s="126"/>
+      <c r="P77" s="126"/>
+      <c r="Q77" s="126"/>
+      <c r="R77" s="126"/>
+      <c r="S77" s="126"/>
+    </row>
+    <row r="78" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A78" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="117"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="L78" s="65"/>
+      <c r="M78" s="126"/>
+      <c r="N78" s="126"/>
+      <c r="O78" s="126"/>
+      <c r="P78" s="126"/>
+      <c r="Q78" s="126"/>
+      <c r="R78" s="126"/>
+      <c r="S78" s="126"/>
+    </row>
+    <row r="79" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A79" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="109" t="s">
-        <v>142</v>
-      </c>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="83"/>
-    </row>
-    <row r="47" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A47" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="83"/>
-    </row>
-    <row r="48" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A48" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="83"/>
-      <c r="R48" s="83"/>
-      <c r="S48" s="83"/>
-    </row>
-    <row r="49" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A49" s="83" t="s">
+      <c r="B79" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="99" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="117"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="117"/>
+      <c r="H79" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" s="126"/>
+      <c r="J79" s="126"/>
+      <c r="K79" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="L79" s="65"/>
+      <c r="M79" s="126"/>
+      <c r="N79" s="126"/>
+      <c r="O79" s="126"/>
+      <c r="P79" s="126"/>
+      <c r="Q79" s="126"/>
+      <c r="R79" s="126"/>
+      <c r="S79" s="126"/>
+    </row>
+    <row r="80" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A80" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="83"/>
-    </row>
-    <row r="50" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A50" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="83"/>
-    </row>
-    <row r="51" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A51" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="106"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="96" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-    </row>
-    <row r="52" s="65" customFormat="1" ht="17" customHeight="1" spans="1:19">
-      <c r="A52" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="99"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="L52" s="97"/>
-      <c r="M52" s="97"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="97"/>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="97"/>
-      <c r="S52" s="97"/>
-    </row>
-    <row r="53" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A53" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="99"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="97"/>
-      <c r="R53" s="97"/>
-      <c r="S53" s="97"/>
-    </row>
-    <row r="54" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A54" s="84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B54" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="E54" s="84"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="83"/>
-    </row>
-    <row r="55" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A55" s="83" t="s">
+      <c r="B80" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="120" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="E80" s="117"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" s="126"/>
+      <c r="J80" s="126"/>
+      <c r="K80" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="L80" s="65"/>
+      <c r="M80" s="126"/>
+      <c r="N80" s="126"/>
+      <c r="O80" s="126"/>
+      <c r="P80" s="126"/>
+      <c r="Q80" s="126"/>
+      <c r="R80" s="126"/>
+      <c r="S80" s="126"/>
+    </row>
+    <row r="81" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A81" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
-    </row>
-    <row r="56" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A56" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="84"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
-    </row>
-    <row r="57" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A57" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" s="95"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="83"/>
-      <c r="S57" s="83"/>
-    </row>
-    <row r="58" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A58" s="83" t="s">
+      <c r="B81" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" s="117"/>
+      <c r="F81" s="126"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" s="126"/>
+      <c r="J81" s="126"/>
+      <c r="K81" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="L81" s="65"/>
+      <c r="M81" s="126"/>
+      <c r="N81" s="126"/>
+      <c r="O81" s="126"/>
+      <c r="P81" s="126"/>
+      <c r="Q81" s="126"/>
+      <c r="R81" s="126"/>
+      <c r="S81" s="126"/>
+    </row>
+    <row r="82" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A82" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="117"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
+      <c r="K82" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="L82" s="65"/>
+      <c r="M82" s="126"/>
+      <c r="N82" s="126"/>
+      <c r="O82" s="126"/>
+      <c r="P82" s="126"/>
+      <c r="Q82" s="126"/>
+      <c r="R82" s="126"/>
+      <c r="S82" s="126"/>
+    </row>
+    <row r="83" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A83" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="121"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="121"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="121"/>
+      <c r="K83" s="121"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="121"/>
+      <c r="N83" s="121"/>
+      <c r="O83" s="121"/>
+      <c r="P83" s="121"/>
+      <c r="Q83" s="121"/>
+      <c r="R83" s="121"/>
+      <c r="S83" s="121"/>
+    </row>
+    <row r="84" s="72" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A84" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H58" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-      <c r="Q58" s="83"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83"/>
-    </row>
-    <row r="59" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A59" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="77"/>
-      <c r="Q59" s="77"/>
-      <c r="R59" s="77"/>
-      <c r="S59" s="77"/>
-    </row>
-    <row r="60" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A60" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-    </row>
-    <row r="61" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A61" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="101"/>
-      <c r="H61" s="100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" s="100"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="L61" s="73"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="100"/>
-      <c r="O61" s="100"/>
-      <c r="P61" s="100"/>
-      <c r="Q61" s="100"/>
-      <c r="R61" s="100"/>
-      <c r="S61" s="100"/>
-    </row>
-    <row r="62" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A62" s="93" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="102" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="L62" s="83"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
-      <c r="R62" s="93"/>
-      <c r="S62" s="93"/>
-    </row>
-    <row r="63" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A63" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C63" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" s="108"/>
-      <c r="J63" s="108"/>
-      <c r="K63" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="L63" s="83"/>
-      <c r="M63" s="108"/>
-      <c r="N63" s="108"/>
-      <c r="O63" s="108"/>
-      <c r="P63" s="108"/>
-      <c r="Q63" s="108"/>
-      <c r="R63" s="108"/>
-      <c r="S63" s="108"/>
-    </row>
-    <row r="64" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A64" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="E64" s="103"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" s="108"/>
-      <c r="J64" s="108"/>
-      <c r="K64" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="L64" s="83"/>
-      <c r="M64" s="108"/>
-      <c r="N64" s="108"/>
-      <c r="O64" s="108"/>
-      <c r="P64" s="108"/>
-      <c r="Q64" s="108"/>
-      <c r="R64" s="108"/>
-      <c r="S64" s="108"/>
-    </row>
-    <row r="65" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A65" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="B65" s="102" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="103"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" s="108"/>
-      <c r="J65" s="108"/>
-      <c r="K65" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="L65" s="83"/>
-      <c r="M65" s="108"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="108"/>
-      <c r="P65" s="108"/>
-      <c r="Q65" s="108"/>
-      <c r="R65" s="108"/>
-      <c r="S65" s="108"/>
-    </row>
-    <row r="66" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A66" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="B66" s="93" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" s="94" t="s">
-        <v>204</v>
-      </c>
-      <c r="D66" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" s="103"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" s="108"/>
-      <c r="J66" s="108"/>
-      <c r="K66" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="L66" s="83"/>
-      <c r="M66" s="108"/>
-      <c r="N66" s="108"/>
-      <c r="O66" s="108"/>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="108"/>
-      <c r="R66" s="108"/>
-      <c r="S66" s="108"/>
-    </row>
-    <row r="67" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A67" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="B67" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C67" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" s="108"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="L67" s="83"/>
-      <c r="M67" s="108"/>
-      <c r="N67" s="108"/>
-      <c r="O67" s="108"/>
-      <c r="P67" s="108"/>
-      <c r="Q67" s="108"/>
-      <c r="R67" s="108"/>
-      <c r="S67" s="108"/>
-    </row>
-    <row r="68" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A68" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="110" t="s">
-        <v>210</v>
-      </c>
-      <c r="D68" s="111"/>
-      <c r="E68" s="111"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="117"/>
-      <c r="P68" s="117"/>
-      <c r="Q68" s="117"/>
-      <c r="R68" s="117"/>
-      <c r="S68" s="117"/>
-    </row>
-    <row r="69" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A69" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="B69" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="C69" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="108"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" s="108"/>
-      <c r="J69" s="108"/>
-      <c r="K69" s="108"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="108"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="108"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="108"/>
-      <c r="R69" s="108"/>
-      <c r="S69" s="108"/>
-    </row>
-    <row r="70" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A70" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="108"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" s="108"/>
-      <c r="J70" s="108"/>
-      <c r="K70" s="119" t="s">
-        <v>216</v>
-      </c>
-      <c r="L70" s="83"/>
-      <c r="M70" s="108"/>
-      <c r="N70" s="108"/>
-      <c r="O70" s="108"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="108"/>
-      <c r="R70" s="108"/>
-      <c r="S70" s="108"/>
-    </row>
-    <row r="71" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A71" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="B71" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="108"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" s="108"/>
-      <c r="J71" s="108"/>
-      <c r="K71" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="L71" s="83"/>
-      <c r="M71" s="108"/>
-      <c r="N71" s="108"/>
-      <c r="O71" s="108"/>
-      <c r="P71" s="108"/>
-      <c r="Q71" s="108"/>
-      <c r="R71" s="108"/>
-      <c r="S71" s="108"/>
-    </row>
-    <row r="72" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A72" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" s="108"/>
-      <c r="J72" s="108"/>
-      <c r="K72" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="L72" s="83"/>
-      <c r="M72" s="108"/>
-      <c r="N72" s="108"/>
-      <c r="O72" s="108"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="108"/>
-      <c r="R72" s="108"/>
-      <c r="S72" s="108"/>
-    </row>
-    <row r="73" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A73" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="E73" s="103"/>
-      <c r="F73" s="108"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" s="108"/>
-      <c r="J73" s="108"/>
-      <c r="K73" s="93" t="s">
-        <v>227</v>
-      </c>
-      <c r="L73" s="83"/>
-      <c r="M73" s="108"/>
-      <c r="N73" s="108"/>
-      <c r="O73" s="108"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
-      <c r="R73" s="108"/>
-      <c r="S73" s="108"/>
-    </row>
-    <row r="74" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A74" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" s="112" t="s">
-        <v>229</v>
-      </c>
-      <c r="D74" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="103"/>
-      <c r="F74" s="108"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" s="108"/>
-      <c r="J74" s="108"/>
-      <c r="K74" s="93" t="s">
-        <v>227</v>
-      </c>
-      <c r="L74" s="83"/>
-      <c r="M74" s="108"/>
-      <c r="N74" s="108"/>
-      <c r="O74" s="108"/>
-      <c r="P74" s="108"/>
-      <c r="Q74" s="108"/>
-      <c r="R74" s="108"/>
-      <c r="S74" s="108"/>
-    </row>
-    <row r="75" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A75" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="C75" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="D75" s="103" t="s">
-        <v>232</v>
-      </c>
-      <c r="E75" s="103"/>
-      <c r="F75" s="108"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I75" s="108"/>
-      <c r="J75" s="108"/>
-      <c r="K75" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="L75" s="83"/>
-      <c r="M75" s="108"/>
-      <c r="N75" s="108"/>
-      <c r="O75" s="108"/>
-      <c r="P75" s="108"/>
-      <c r="Q75" s="108"/>
-      <c r="R75" s="108"/>
-      <c r="S75" s="108"/>
-    </row>
-    <row r="76" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A76" s="113" t="s">
+      <c r="B84" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="E84" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="F84" s="122"/>
+      <c r="G84" s="123"/>
+      <c r="H84" s="122"/>
+      <c r="I84" s="122"/>
+      <c r="J84" s="122"/>
+      <c r="K84" s="122"/>
+      <c r="L84" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" s="122"/>
+      <c r="N84" s="122"/>
+      <c r="O84" s="122"/>
+      <c r="P84" s="122"/>
+      <c r="Q84" s="122"/>
+      <c r="R84" s="122"/>
+      <c r="S84" s="122"/>
+    </row>
+    <row r="85" s="72" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A85" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="C76" s="101" t="s">
-        <v>235</v>
-      </c>
-      <c r="D76" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="E76" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="F76" s="113"/>
-      <c r="G76" s="114"/>
-      <c r="H76" s="113"/>
-      <c r="I76" s="113"/>
-      <c r="J76" s="113"/>
-      <c r="K76" s="113"/>
-      <c r="L76" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76" s="113"/>
-      <c r="N76" s="113"/>
-      <c r="O76" s="113"/>
-      <c r="P76" s="113"/>
-      <c r="Q76" s="113"/>
-      <c r="R76" s="113"/>
-      <c r="S76" s="113"/>
-    </row>
-    <row r="77" s="69" customFormat="1" ht="15" customHeight="1" spans="1:19">
-      <c r="A77" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77" s="101" t="s">
-        <v>237</v>
-      </c>
-      <c r="D77" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="E77" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="F77" s="113"/>
-      <c r="G77" s="114"/>
-      <c r="H77" s="113"/>
-      <c r="I77" s="113"/>
-      <c r="J77" s="113"/>
-      <c r="K77" s="113"/>
-      <c r="L77" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="M77" s="113"/>
-      <c r="N77" s="113"/>
-      <c r="O77" s="113"/>
-      <c r="P77" s="113"/>
-      <c r="Q77" s="113"/>
-      <c r="R77" s="113"/>
-      <c r="S77" s="113"/>
-    </row>
-    <row r="78" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A78" s="73"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
-      <c r="G78" s="115"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="73"/>
-    </row>
-    <row r="79" s="58" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A79" s="73"/>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="G79" s="115"/>
-    </row>
-    <row r="80" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C80" s="116"/>
-      <c r="D80" s="116"/>
-      <c r="E80" s="116"/>
-      <c r="G80" s="116"/>
-    </row>
-    <row r="81" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C81" s="116"/>
-      <c r="D81" s="116"/>
-      <c r="E81" s="116"/>
-      <c r="G81" s="116"/>
-    </row>
-    <row r="82" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C82" s="116"/>
-      <c r="D82" s="116"/>
-      <c r="E82" s="116"/>
-      <c r="G82" s="116"/>
-    </row>
-    <row r="83" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
-      <c r="G83" s="116"/>
-    </row>
-    <row r="84" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C84" s="116"/>
-      <c r="D84" s="116"/>
-      <c r="E84" s="116"/>
-      <c r="G84" s="116"/>
-    </row>
-    <row r="85" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C85" s="116"/>
-      <c r="D85" s="116"/>
-      <c r="E85" s="116"/>
-      <c r="G85" s="116"/>
-    </row>
-    <row r="86" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C86" s="116"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="116"/>
-      <c r="G86" s="116"/>
-    </row>
-    <row r="87" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C87" s="116"/>
-      <c r="D87" s="116"/>
-      <c r="E87" s="116"/>
-      <c r="G87" s="116"/>
+      <c r="B85" s="114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="115" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="F85" s="122"/>
+      <c r="G85" s="123"/>
+      <c r="H85" s="122"/>
+      <c r="I85" s="122"/>
+      <c r="J85" s="122"/>
+      <c r="K85" s="122"/>
+      <c r="L85" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" s="122"/>
+      <c r="N85" s="122"/>
+      <c r="O85" s="122"/>
+      <c r="P85" s="122"/>
+      <c r="Q85" s="122"/>
+      <c r="R85" s="122"/>
+      <c r="S85" s="122"/>
+    </row>
+    <row r="86" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+      <c r="A86" s="76"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="L86" s="76"/>
+      <c r="M86" s="76"/>
+      <c r="N86" s="76"/>
+    </row>
+    <row r="87" s="58" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A87" s="76"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="124"/>
+      <c r="G87" s="124"/>
     </row>
     <row r="88" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C88" s="116"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="G88" s="116"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
+      <c r="G88" s="125"/>
     </row>
     <row r="89" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C89" s="116"/>
-      <c r="D89" s="116"/>
-      <c r="E89" s="116"/>
-      <c r="G89" s="116"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="G89" s="125"/>
     </row>
     <row r="90" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C90" s="116"/>
-      <c r="D90" s="116"/>
-      <c r="E90" s="116"/>
-      <c r="G90" s="116"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="125"/>
+      <c r="G90" s="125"/>
     </row>
     <row r="91" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C91" s="116"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="116"/>
-      <c r="G91" s="116"/>
+      <c r="C91" s="125"/>
+      <c r="D91" s="125"/>
+      <c r="E91" s="125"/>
+      <c r="G91" s="125"/>
     </row>
     <row r="92" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C92" s="116"/>
-      <c r="D92" s="116"/>
-      <c r="E92" s="116"/>
-      <c r="G92" s="116"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="125"/>
+      <c r="E92" s="125"/>
+      <c r="G92" s="125"/>
     </row>
     <row r="93" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C93" s="116"/>
-      <c r="D93" s="116"/>
-      <c r="E93" s="116"/>
-      <c r="G93" s="116"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="125"/>
+      <c r="E93" s="125"/>
+      <c r="G93" s="125"/>
     </row>
     <row r="94" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C94" s="116"/>
-      <c r="D94" s="116"/>
-      <c r="E94" s="116"/>
-      <c r="G94" s="116"/>
+      <c r="C94" s="125"/>
+      <c r="D94" s="125"/>
+      <c r="E94" s="125"/>
+      <c r="G94" s="125"/>
+    </row>
+    <row r="95" s="57" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C95" s="125"/>
+      <c r="D95" s="125"/>
+      <c r="E95" s="125"/>
+      <c r="G95" s="125"/>
+    </row>
+    <row r="96" s="57" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C96" s="125"/>
+      <c r="D96" s="125"/>
+      <c r="E96" s="125"/>
+      <c r="G96" s="125"/>
+    </row>
+    <row r="97" s="57" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C97" s="125"/>
+      <c r="D97" s="125"/>
+      <c r="E97" s="125"/>
+      <c r="G97" s="125"/>
+    </row>
+    <row r="98" s="57" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C98" s="125"/>
+      <c r="D98" s="125"/>
+      <c r="E98" s="125"/>
+      <c r="G98" s="125"/>
+    </row>
+    <row r="99" s="57" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C99" s="125"/>
+      <c r="D99" s="125"/>
+      <c r="E99" s="125"/>
+      <c r="G99" s="125"/>
+    </row>
+    <row r="100" s="57" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C100" s="125"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="125"/>
+      <c r="G100" s="125"/>
+    </row>
+    <row r="101" s="57" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C101" s="125"/>
+      <c r="D101" s="125"/>
+      <c r="E101" s="125"/>
+      <c r="G101" s="125"/>
+    </row>
+    <row r="102" s="57" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C102" s="125"/>
+      <c r="D102" s="125"/>
+      <c r="E102" s="125"/>
+      <c r="G102" s="125"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5367,7 +5528,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -5378,1476 +5539,1476 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B3" s="12">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B6" s="12">
         <v>99</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B8" s="12">
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B9" s="12">
         <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B12" s="12">
         <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B13" s="12">
         <v>4</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B14" s="12">
         <v>5</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B15" s="13">
         <v>98</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B17" s="12">
         <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B18" s="12">
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B19" s="12">
         <v>4</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B20" s="12">
         <v>5</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B21" s="12">
         <v>6</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B22" s="12">
         <v>7</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B24" s="12">
         <v>1</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="11" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B25" s="12">
         <v>2</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" s="11" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B26" s="12">
         <v>3</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B27" s="12">
         <v>4</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B28" s="12">
         <v>5</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
       <c r="A29" s="11" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
       <c r="A30" s="11" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B30" s="12">
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:3">
       <c r="A31" s="11" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B31" s="12">
         <v>2</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
       <c r="A32" s="11" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B32" s="12">
         <v>3</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
       <c r="A33" s="11" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B33" s="12">
         <v>4</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:3">
       <c r="A34" s="11" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B34" s="12">
         <v>5</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B35" s="12">
         <v>6</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A37" s="14" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B37" s="15">
         <v>1</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
       <c r="A38" s="17" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B38" s="12">
         <v>2</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:3">
       <c r="A39" s="17" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B39" s="12">
         <v>3</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A40" s="17" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B40" s="18">
         <v>4</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A41" s="14" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:3">
       <c r="A42" s="17" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B42" s="12">
         <v>2</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:3">
       <c r="A43" s="17" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B43" s="12">
         <v>3</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:3">
       <c r="A44" s="17" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B44" s="12">
         <v>4</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:3">
       <c r="A45" s="17" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B45" s="12">
         <v>5</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:3">
       <c r="A46" s="17" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B46" s="12">
         <v>7</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A47" s="17" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A48" s="14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B48" s="15">
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
       <c r="A49" s="17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B49" s="12">
         <v>2</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
       <c r="A50" s="17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B50" s="12">
         <v>3</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
       <c r="A51" s="17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B51" s="12">
         <v>4</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" s="17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B52" s="12">
         <v>5</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" s="17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B53" s="12">
         <v>6</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
       <c r="A54" s="17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B54" s="12">
         <v>7</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
       <c r="A55" s="17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B55" s="12">
         <v>8</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A56" s="17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A57" s="14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B57" s="15">
         <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
       <c r="A58" s="17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B58" s="12">
         <v>2</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" s="17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B59" s="12">
         <v>3</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
       <c r="A60" s="17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B60" s="12">
         <v>4</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
       <c r="A61" s="17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B61" s="12">
         <v>5</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
       <c r="A62" s="17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B62" s="12">
         <v>7</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
       <c r="A63" s="17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B63" s="21">
         <v>8</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1" customHeight="1" spans="1:3">
       <c r="A64" s="22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A65" s="25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B65" s="26">
         <v>1</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A66" s="25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B66" s="26">
         <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A67" s="25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B67" s="26">
         <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A68" s="25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A69" s="25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B69" s="26">
         <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A70" s="25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B70" s="26">
         <v>6</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A71" s="25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B71" s="26">
         <v>7</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A72" s="25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B72" s="26">
         <v>98</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A73" s="27" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B73" s="28">
         <v>1</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A74" s="30" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B74" s="26">
         <v>2</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A75" s="30" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B75" s="26">
         <v>3</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A76" s="31" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B76" s="32">
         <v>4</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A77" s="30" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B77" s="34">
         <v>1</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A78" s="30" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B78" s="26">
         <v>2</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A79" s="30" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B79" s="26">
         <v>3</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A80" s="30" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B80" s="26">
         <v>4</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A81" s="30" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B81" s="26">
         <v>5</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A82" s="31" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B82" s="36">
         <v>99</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A83" s="30" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B83" s="34">
         <v>1</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A84" s="30" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B84" s="26">
         <v>2</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A85" s="30" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B85" s="26">
         <v>3</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A86" s="31" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B86" s="36">
         <v>98</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A87" s="30" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B87" s="34">
         <v>1</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A88" s="30" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B88" s="26">
         <v>2</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A89" s="31" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B89" s="32">
         <v>3</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A90" s="35" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B90" s="34">
         <v>1</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A91" s="35" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B91" s="26">
         <v>2</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A92" s="35" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B92" s="26">
         <v>3</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" s="8" customFormat="1" customHeight="1" spans="1:3">
       <c r="A93" s="37" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B93" s="38">
         <v>1</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" s="9" customFormat="1" customHeight="1" spans="1:3">
       <c r="A94" s="40" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B94" s="41">
         <v>2</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" s="9" customFormat="1" customHeight="1" spans="1:3">
       <c r="A95" s="40" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B95" s="41">
         <v>3</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A96" s="43" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B96" s="32">
         <v>4</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" s="9" customFormat="1" customHeight="1" spans="1:3">
       <c r="A97" s="40" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B97" s="41">
         <v>1</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A98" s="40" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B98" s="26">
         <v>2</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A99" s="40" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B99" s="26">
         <v>3</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A100" s="40" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B100" s="26">
         <v>4</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A101" s="40" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B101" s="26">
         <v>5</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A102" s="40" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B102" s="26">
         <v>6</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="103" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A103" s="43" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B103" s="32">
         <v>7</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A104" s="25" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B104" s="26">
         <v>1</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A105" s="25" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B105" s="26">
         <v>2</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A106" s="25" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B106" s="26">
         <v>3</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A107" s="25" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B107" s="26">
         <v>4</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A108" s="25" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B108" s="26">
         <v>5</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A109" s="25" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B109" s="21">
         <v>98</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" s="8" customFormat="1" customHeight="1" spans="1:3">
       <c r="A110" s="37" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B110" s="38">
         <v>1</v>
       </c>
       <c r="C110" s="39" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A111" s="37" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B111" s="26">
         <v>2</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A112" s="37" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B112" s="26">
         <v>3</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A113" s="37" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B113" s="26">
         <v>4</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A114" s="37" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B114" s="26">
         <v>5</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A115" s="37" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B115" s="26">
         <v>6</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A116" s="37" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B116" s="26">
         <v>7</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A117" s="37" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B117" s="36">
         <v>98</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A118" s="44" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B118" s="45">
         <v>1</v>
       </c>
       <c r="C118" s="44" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A119" s="46" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B119" s="47">
         <v>2</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A120" s="46" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B120" s="47">
         <v>3</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A121" s="46" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B121" s="47">
         <v>4</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A122" s="46" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B122" s="49">
         <v>98</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="123" s="8" customFormat="1" customHeight="1" spans="1:3">
       <c r="A123" s="50" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B123" s="51">
         <v>1</v>
       </c>
       <c r="C123" s="52" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" s="9" customFormat="1" customHeight="1" spans="1:3">
       <c r="A124" s="53" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B124" s="47">
         <v>2</v>
       </c>
       <c r="C124" s="46" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125" s="8" customFormat="1" customHeight="1" spans="1:3">
       <c r="A125" s="50" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B125" s="51">
         <v>1</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A126" s="50" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B126" s="26">
         <v>2</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" customHeight="1" spans="1:3">
       <c r="A127" s="50" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B127" s="54">
         <v>99</v>
       </c>
       <c r="C127" s="46" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" s="8" customFormat="1" customHeight="1" spans="1:3">
       <c r="A128" s="37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B128" s="38">
         <v>1</v>
       </c>
       <c r="C128" s="52" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A129" s="40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B129" s="26">
         <v>2</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A130" s="40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B130" s="26">
         <v>3</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A131" s="40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B131" s="26">
         <v>4</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="132" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A132" s="43" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B132" s="36">
         <v>98</v>
       </c>
       <c r="C132" s="55" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B133" s="56">
         <v>1</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A134" s="4" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B134" s="56">
         <v>2</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A135" s="4" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B135" s="56">
         <v>3</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" ht="13.5" customHeight="1"/>
@@ -6877,24 +7038,24 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/location_details.xlsx
+++ b/xforms/xlsforms/location_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12855" tabRatio="272"/>
+    <workbookView windowWidth="16758" windowHeight="6020" tabRatio="272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417">
   <si>
     <t>type</t>
   </si>
@@ -817,6 +817,48 @@
     <t>${trashTreatment}=7</t>
   </si>
   <si>
+    <t>ine</t>
+  </si>
+  <si>
+    <t>A seguir perguntas sobre: Censo INE 2017</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>X. O agregado foi recenseado durante o censo do INE de 2017?</t>
+  </si>
+  <si>
+    <t>select_one ine_reasons</t>
+  </si>
+  <si>
+    <t>reasonToNotReg</t>
+  </si>
+  <si>
+    <t>XI. Indique o motivo do agregado não ter sido recenseado?</t>
+  </si>
+  <si>
+    <t>${registered}=2</t>
+  </si>
+  <si>
+    <t>otherReasonToNotReg</t>
+  </si>
+  <si>
+    <t>XI.I. Especifique o motivo  do agregado não ter sido recenseado?</t>
+  </si>
+  <si>
+    <t>${registered}=2 and ${reasonToNotReg}=4</t>
+  </si>
+  <si>
+    <t>tagAtDoor</t>
+  </si>
+  <si>
+    <t>XII. A etiqueta do censo do INE esta colada na porta?</t>
+  </si>
+  <si>
+    <t>${registered}=1</t>
+  </si>
+  <si>
     <t>processedByMirth</t>
   </si>
   <si>
@@ -1051,6 +1093,9 @@
     <t>Água da chuva fora do quintal da casa</t>
   </si>
   <si>
+    <t>Água Mineral</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outra                                                                                                      </t>
   </si>
   <si>
@@ -1256,6 +1301,21 @@
   </si>
   <si>
     <t>Não aceita para verificar mais concorda em responder as perguntas</t>
+  </si>
+  <si>
+    <t>ine_reasons</t>
+  </si>
+  <si>
+    <t>Equipa não veio</t>
+  </si>
+  <si>
+    <t>Não estavam em casa</t>
+  </si>
+  <si>
+    <t>Outro Motivo</t>
+  </si>
+  <si>
+    <t>Recusaram</t>
   </si>
   <si>
     <t>form_title</t>
@@ -1281,10 +1341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1351,6 +1411,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1366,8 +1494,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1381,77 +1518,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1466,14 +1534,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1481,21 +1542,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1511,6 +1571,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,7 +1612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,31 +1624,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,13 +1660,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,7 +1732,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,7 +1762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,85 +1780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,15 +1899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1857,11 +1914,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1877,6 +1951,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1898,185 +1990,159 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2158,6 +2224,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2188,6 +2257,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2248,6 +2335,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2257,7 +2350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2266,7 +2359,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -2290,7 +2383,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="23" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,16 +2404,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2348,16 +2441,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -2366,7 +2459,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2393,7 +2486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2402,10 +2495,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2414,7 +2507,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,16 +2522,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,972 +2964,972 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
+      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="26.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="50" style="73" customWidth="1"/>
-    <col min="4" max="4" width="93" style="73" customWidth="1"/>
-    <col min="5" max="5" width="26.4285714285714" style="73" customWidth="1"/>
+    <col min="1" max="1" width="36.5729166666667" customWidth="1"/>
+    <col min="2" max="2" width="26.8645833333333" customWidth="1"/>
+    <col min="3" max="3" width="60.9166666666667" style="82" customWidth="1"/>
+    <col min="4" max="4" width="93" style="82" customWidth="1"/>
+    <col min="5" max="5" width="26.4270833333333" style="82" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="11" style="73" customWidth="1"/>
-    <col min="8" max="8" width="13.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="12.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="7.85714285714286" customWidth="1"/>
-    <col min="11" max="11" width="75.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="50.4285714285714" customWidth="1"/>
-    <col min="13" max="14" width="44.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="12.4285714285714" customWidth="1"/>
-    <col min="16" max="16" width="15.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="11" style="82" customWidth="1"/>
+    <col min="8" max="8" width="13.5729166666667" customWidth="1"/>
+    <col min="9" max="9" width="12.8645833333333" customWidth="1"/>
+    <col min="10" max="10" width="7.86458333333333" customWidth="1"/>
+    <col min="11" max="11" width="75.1354166666667" customWidth="1"/>
+    <col min="12" max="12" width="50.4270833333333" customWidth="1"/>
+    <col min="13" max="14" width="44.1354166666667" customWidth="1"/>
+    <col min="15" max="15" width="12.4270833333333" customWidth="1"/>
+    <col min="16" max="16" width="15.7083333333333" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="13.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="13.8571428571429" customWidth="1"/>
-    <col min="20" max="20" width="20.1428571428571" customWidth="1"/>
-    <col min="21" max="21" width="21.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="13.7083333333333" customWidth="1"/>
+    <col min="19" max="19" width="13.8645833333333" customWidth="1"/>
+    <col min="20" max="20" width="20.1354166666667" customWidth="1"/>
+    <col min="21" max="21" width="21.1354166666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="57" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A1" s="74" t="s">
+    <row r="1" s="66" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="S1" s="83" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="58" customFormat="1" ht="18" customHeight="1" spans="1:19">
-      <c r="A2" s="76" t="s">
+    <row r="2" s="67" customFormat="1" ht="18" customHeight="1" spans="1:19">
+      <c r="A2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-    </row>
-    <row r="3" s="58" customFormat="1" ht="15.75" customHeight="1" spans="1:19">
-      <c r="A3" s="76" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+    </row>
+    <row r="3" s="67" customFormat="1" ht="15.75" customHeight="1" spans="1:19">
+      <c r="A3" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-    </row>
-    <row r="4" s="58" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A4" s="76" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+    </row>
+    <row r="4" s="67" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A4" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-    </row>
-    <row r="5" s="58" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A5" s="76" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+    </row>
+    <row r="5" s="67" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-    </row>
-    <row r="6" s="59" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A6" s="78" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+    </row>
+    <row r="6" s="68" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-    </row>
-    <row r="7" s="59" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A7" s="78" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+    </row>
+    <row r="7" s="68" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A7" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-    </row>
-    <row r="8" s="59" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A8" s="78" t="s">
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+    </row>
+    <row r="8" s="68" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A8" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-    </row>
-    <row r="9" s="59" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A9" s="78" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+    </row>
+    <row r="9" s="68" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A9" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-    </row>
-    <row r="10" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A10" s="78" t="s">
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+    </row>
+    <row r="10" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A10" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="95" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-    </row>
-    <row r="11" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A11" s="78" t="s">
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+    </row>
+    <row r="11" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A11" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-    </row>
-    <row r="12" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A12" s="78" t="s">
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+    </row>
+    <row r="12" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A12" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-    </row>
-    <row r="13" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A13" s="78" t="s">
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+    </row>
+    <row r="13" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A13" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-    </row>
-    <row r="14" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A14" s="78" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+    </row>
+    <row r="14" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A14" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="76" t="s">
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-    </row>
-    <row r="15" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A15" s="78" t="s">
+      <c r="L14" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+    </row>
+    <row r="15" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A15" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="76" t="s">
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-    </row>
-    <row r="16" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A16" s="60" t="s">
+      <c r="L15" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+    </row>
+    <row r="16" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A16" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="G16" s="81"/>
-    </row>
-    <row r="17" s="61" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A17" s="82" t="s">
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="G16" s="90"/>
+    </row>
+    <row r="17" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A17" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-    </row>
-    <row r="18" s="61" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A18" s="82" t="s">
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="92"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+    </row>
+    <row r="18" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A18" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-    </row>
-    <row r="19" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A19" s="76" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="92"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+    </row>
+    <row r="19" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77" t="s">
+      <c r="E19" s="86"/>
+      <c r="F19" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-    </row>
-    <row r="20" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A20" s="65" t="s">
+      <c r="H19" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+    </row>
+    <row r="20" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A20" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85" t="s">
+      <c r="E20" s="94"/>
+      <c r="F20" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-    </row>
-    <row r="21" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A21" s="86" t="s">
+      <c r="G20" s="94"/>
+      <c r="H20" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+    </row>
+    <row r="21" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77" t="s">
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
+      <c r="H21" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-    </row>
-    <row r="23" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A23" s="89" t="s">
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+    </row>
+    <row r="23" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A23" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-    </row>
-    <row r="24" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A24" s="76" t="s">
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+    </row>
+    <row r="24" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A24" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="65" t="s">
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-    </row>
-    <row r="25" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A25" s="76" t="s">
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+    </row>
+    <row r="25" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A25" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-    </row>
-    <row r="26" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A26" s="76" t="s">
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+    </row>
+    <row r="26" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A26" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="65" t="s">
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-    </row>
-    <row r="27" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A27" s="76" t="s">
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+    </row>
+    <row r="27" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A27" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-    </row>
-    <row r="28" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A28" s="76" t="s">
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+    </row>
+    <row r="28" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A28" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="65" t="s">
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-    </row>
-    <row r="29" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A29" s="76" t="s">
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+    </row>
+    <row r="29" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A29" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-    </row>
-    <row r="30" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A30" s="76" t="s">
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+    </row>
+    <row r="30" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A30" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="65" t="s">
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
     </row>
     <row r="31" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A31" s="25" t="s">
@@ -3845,13 +3938,13 @@
       <c r="B31" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="99" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="90"/>
+      <c r="E31" s="99"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25" t="b">
@@ -3868,1636 +3961,1808 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
     </row>
-    <row r="32" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A32" s="91" t="s">
+    <row r="32" s="72" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A32" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="E32" s="92"/>
-    </row>
-    <row r="33" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A33" s="60" t="s">
+      <c r="C32" s="101"/>
+      <c r="E32" s="101"/>
+    </row>
+    <row r="33" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A33" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="G33" s="81"/>
-    </row>
-    <row r="34" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A34" s="93" t="s">
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="G33" s="90"/>
+    </row>
+    <row r="34" s="73" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A34" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="93" t="s">
+      <c r="C34" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="93"/>
-    </row>
-    <row r="35" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A35" s="76" t="s">
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
+    </row>
+    <row r="35" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A35" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76" t="s">
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-    </row>
-    <row r="36" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A36" s="65" t="s">
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+    </row>
+    <row r="36" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A36" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65" t="s">
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-    </row>
-    <row r="37" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A37" s="65" t="s">
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+    </row>
+    <row r="37" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A37" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65" t="s">
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-    </row>
-    <row r="38" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A38" s="95" t="s">
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+    </row>
+    <row r="38" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A38" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="C38" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-    </row>
-    <row r="39" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A39" s="95" t="s">
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+    </row>
+    <row r="39" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A39" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="65" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-    </row>
-    <row r="40" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A40" s="76" t="s">
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+    </row>
+    <row r="40" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A40" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-    </row>
-    <row r="41" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A41" s="76" t="s">
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+    </row>
+    <row r="41" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A41" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="65" t="s">
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-    </row>
-    <row r="42" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A42" s="91" t="s">
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+    </row>
+    <row r="42" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A42" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="G42" s="81"/>
-    </row>
-    <row r="43" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A43" s="96" t="s">
+      <c r="C42" s="101"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="G42" s="90"/>
+    </row>
+    <row r="43" s="74" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A43" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="G43" s="85"/>
-    </row>
-    <row r="44" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
-      <c r="A44" s="60" t="s">
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="G43" s="94"/>
+    </row>
+    <row r="44" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+      <c r="A44" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="K44" s="60" t="s">
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="K44" s="69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A45" s="76" t="s">
+    <row r="45" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A45" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-    </row>
-    <row r="46" s="59" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A46" s="76" t="s">
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+    </row>
+    <row r="46" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A46" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="106" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="65" t="s">
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="95"/>
-    </row>
-    <row r="47" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A47" s="65" t="s">
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+    </row>
+    <row r="47" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A47" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65" t="s">
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="65"/>
-      <c r="S47" s="65"/>
-    </row>
-    <row r="48" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A48" s="98" t="s">
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
+    </row>
+    <row r="48" s="75" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A48" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="99" t="s">
+      <c r="C48" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98" t="s">
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="98"/>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="98"/>
-      <c r="R48" s="98"/>
-      <c r="S48" s="98"/>
-    </row>
-    <row r="49" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A49" s="65" t="s">
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="107"/>
+      <c r="P48" s="107"/>
+      <c r="Q48" s="107"/>
+      <c r="R48" s="107"/>
+      <c r="S48" s="107"/>
+    </row>
+    <row r="49" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A49" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="113" t="s">
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
-    </row>
-    <row r="50" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A50" s="65" t="s">
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
+    </row>
+    <row r="50" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A50" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65" t="s">
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="65"/>
-      <c r="S50" s="65"/>
-    </row>
-    <row r="51" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A51" s="65" t="s">
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+    </row>
+    <row r="51" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A51" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="65"/>
-    </row>
-    <row r="52" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A52" s="65" t="s">
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74"/>
+      <c r="S51" s="74"/>
+    </row>
+    <row r="52" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A52" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65" t="s">
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-    </row>
-    <row r="53" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A53" s="65" t="s">
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+      <c r="S52" s="74"/>
+    </row>
+    <row r="53" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A53" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="100" t="s">
+      <c r="D53" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="E53" s="85"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="65"/>
-      <c r="Q53" s="65"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="65"/>
-    </row>
-    <row r="54" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A54" s="101" t="s">
+      <c r="E53" s="94"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="74"/>
+    </row>
+    <row r="54" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A54" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="101" t="s">
+      <c r="B54" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="100" t="s">
+      <c r="D54" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101" t="s">
+      <c r="E54" s="116"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
+      <c r="K54" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="L54" s="101"/>
-      <c r="M54" s="101"/>
-      <c r="N54" s="101"/>
-      <c r="O54" s="101"/>
-      <c r="P54" s="101"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="101"/>
-    </row>
-    <row r="55" s="68" customFormat="1" ht="17" customHeight="1" spans="1:19">
-      <c r="A55" s="102" t="s">
+      <c r="L54" s="110"/>
+      <c r="M54" s="110"/>
+      <c r="N54" s="110"/>
+      <c r="O54" s="110"/>
+      <c r="P54" s="110"/>
+      <c r="Q54" s="110"/>
+      <c r="R54" s="110"/>
+      <c r="S54" s="110"/>
+    </row>
+    <row r="55" s="77" customFormat="1" ht="17" customHeight="1" spans="1:19">
+      <c r="A55" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="102" t="s">
+      <c r="C55" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="103" t="s">
+      <c r="D55" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E55" s="104"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102" t="s">
+      <c r="E55" s="113"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="111"/>
+      <c r="J55" s="111"/>
+      <c r="K55" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="L55" s="102"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="102"/>
-      <c r="O55" s="102"/>
-      <c r="P55" s="102"/>
-      <c r="Q55" s="102"/>
-      <c r="R55" s="102"/>
-      <c r="S55" s="102"/>
-    </row>
-    <row r="56" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A56" s="102" t="s">
+      <c r="L55" s="111"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="111"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="111"/>
+      <c r="S55" s="111"/>
+    </row>
+    <row r="56" s="77" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A56" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="103" t="s">
+      <c r="D56" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E56" s="104"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" s="102"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="102" t="s">
+      <c r="E56" s="113"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="L56" s="102"/>
-      <c r="M56" s="102"/>
-      <c r="N56" s="102"/>
-      <c r="O56" s="102"/>
-      <c r="P56" s="102"/>
-      <c r="Q56" s="102"/>
-      <c r="R56" s="102"/>
-      <c r="S56" s="102"/>
-    </row>
-    <row r="57" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A57" s="85" t="s">
+      <c r="L56" s="111"/>
+      <c r="M56" s="111"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="111"/>
+      <c r="P56" s="111"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="111"/>
+      <c r="S56" s="111"/>
+    </row>
+    <row r="57" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A57" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="100" t="s">
+      <c r="D57" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="85"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="102" t="s">
+      <c r="E57" s="94"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="65"/>
-    </row>
-    <row r="58" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A58" s="65" t="s">
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="74"/>
+    </row>
+    <row r="58" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A58" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="85" t="s">
+      <c r="C58" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="100" t="s">
+      <c r="D58" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="85"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="102" t="s">
+      <c r="E58" s="94"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="65"/>
-    </row>
-    <row r="59" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A59" s="65" t="s">
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+    </row>
+    <row r="59" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A59" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="100" t="s">
+      <c r="D59" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="E59" s="85"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="102" t="s">
+      <c r="E59" s="94"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="65"/>
-    </row>
-    <row r="60" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A60" s="65" t="s">
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+    </row>
+    <row r="60" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A60" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="100"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="65"/>
-      <c r="S60" s="65"/>
-    </row>
-    <row r="61" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A61" s="65" t="s">
+      <c r="D60" s="109"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="74"/>
+      <c r="S60" s="74"/>
+    </row>
+    <row r="61" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A61" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C61" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="108" t="s">
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="G61" s="48" t="s">
+      <c r="G61" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="H61" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
-      <c r="O61" s="65"/>
-      <c r="P61" s="65"/>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="65"/>
-      <c r="S61" s="65"/>
-    </row>
-    <row r="62" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A62" s="91" t="s">
+      <c r="H61" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="74"/>
+      <c r="S61" s="74"/>
+    </row>
+    <row r="62" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A62" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="110"/>
-    </row>
-    <row r="63" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A63" s="96" t="s">
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="119"/>
+    </row>
+    <row r="63" s="74" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A63" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="112"/>
-    </row>
-    <row r="64" s="60" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
-      <c r="A64" s="60" t="s">
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="121"/>
+    </row>
+    <row r="64" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+      <c r="A64" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="K64" s="60" t="s">
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="K64" s="69" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A65" s="76" t="s">
+    <row r="65" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A65" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="77" t="s">
+      <c r="C65" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76" t="s">
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="L65" s="76"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="76"/>
-      <c r="P65" s="76"/>
-      <c r="Q65" s="76"/>
-      <c r="R65" s="76"/>
-      <c r="S65" s="76"/>
-    </row>
-    <row r="66" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A66" s="114" t="s">
+      <c r="L65" s="85"/>
+      <c r="M65" s="85"/>
+      <c r="N65" s="85"/>
+      <c r="O65" s="85"/>
+      <c r="P65" s="85"/>
+      <c r="Q65" s="85"/>
+      <c r="R65" s="85"/>
+      <c r="S65" s="85"/>
+    </row>
+    <row r="66" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A66" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="114" t="s">
+      <c r="B66" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="115" t="s">
+      <c r="C66" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="115"/>
-      <c r="E66" s="115"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="115"/>
-      <c r="H66" s="114" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" s="114"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="114" t="s">
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="123"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="L66" s="76"/>
-      <c r="M66" s="114"/>
-      <c r="N66" s="114"/>
-      <c r="O66" s="114"/>
-      <c r="P66" s="114"/>
-      <c r="Q66" s="114"/>
-      <c r="R66" s="114"/>
-      <c r="S66" s="114"/>
-    </row>
-    <row r="67" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A67" s="98" t="s">
+      <c r="L66" s="85"/>
+      <c r="M66" s="123"/>
+      <c r="N66" s="123"/>
+      <c r="O66" s="123"/>
+      <c r="P66" s="123"/>
+      <c r="Q66" s="123"/>
+      <c r="R66" s="123"/>
+      <c r="S66" s="123"/>
+    </row>
+    <row r="67" s="75" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A67" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="116" t="s">
+      <c r="B67" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="99" t="s">
+      <c r="C67" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" s="98"/>
-      <c r="J67" s="98"/>
-      <c r="K67" s="98" t="s">
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="L67" s="65"/>
-      <c r="M67" s="98"/>
-      <c r="N67" s="98"/>
-      <c r="O67" s="98"/>
-      <c r="P67" s="98"/>
-      <c r="Q67" s="98"/>
-      <c r="R67" s="98"/>
-      <c r="S67" s="98"/>
-    </row>
-    <row r="68" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A68" s="65" t="s">
+      <c r="L67" s="74"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
+    </row>
+    <row r="68" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A68" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B68" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="65" t="s">
+      <c r="C68" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="117"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="98" t="s">
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="135"/>
+      <c r="J68" s="135"/>
+      <c r="K68" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="L68" s="65"/>
-      <c r="M68" s="126"/>
-      <c r="N68" s="126"/>
-      <c r="O68" s="126"/>
-      <c r="P68" s="126"/>
-      <c r="Q68" s="126"/>
-      <c r="R68" s="126"/>
-      <c r="S68" s="126"/>
-    </row>
-    <row r="69" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A69" s="65" t="s">
+      <c r="L68" s="74"/>
+      <c r="M68" s="135"/>
+      <c r="N68" s="135"/>
+      <c r="O68" s="135"/>
+      <c r="P68" s="135"/>
+      <c r="Q68" s="135"/>
+      <c r="R68" s="135"/>
+      <c r="S68" s="135"/>
+    </row>
+    <row r="69" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A69" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="98" t="s">
+      <c r="B69" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="65" t="s">
+      <c r="C69" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="117" t="s">
+      <c r="D69" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="117"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126" t="s">
+      <c r="E69" s="126"/>
+      <c r="F69" s="135"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="135"/>
+      <c r="J69" s="135"/>
+      <c r="K69" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="L69" s="65"/>
-      <c r="M69" s="126"/>
-      <c r="N69" s="126"/>
-      <c r="O69" s="126"/>
-      <c r="P69" s="126"/>
-      <c r="Q69" s="126"/>
-      <c r="R69" s="126"/>
-      <c r="S69" s="126"/>
-    </row>
-    <row r="70" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A70" s="65" t="s">
+      <c r="L69" s="74"/>
+      <c r="M69" s="135"/>
+      <c r="N69" s="135"/>
+      <c r="O69" s="135"/>
+      <c r="P69" s="135"/>
+      <c r="Q69" s="135"/>
+      <c r="R69" s="135"/>
+      <c r="S69" s="135"/>
+    </row>
+    <row r="70" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A70" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="116" t="s">
+      <c r="B70" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="99" t="s">
+      <c r="C70" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="117" t="s">
+      <c r="D70" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="E70" s="117"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126" t="s">
+      <c r="E70" s="126"/>
+      <c r="F70" s="135"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="135"/>
+      <c r="J70" s="135"/>
+      <c r="K70" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="L70" s="65"/>
-      <c r="M70" s="126"/>
-      <c r="N70" s="126"/>
-      <c r="O70" s="126"/>
-      <c r="P70" s="126"/>
-      <c r="Q70" s="126"/>
-      <c r="R70" s="126"/>
-      <c r="S70" s="126"/>
-    </row>
-    <row r="71" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A71" s="65" t="s">
+      <c r="L70" s="74"/>
+      <c r="M70" s="135"/>
+      <c r="N70" s="135"/>
+      <c r="O70" s="135"/>
+      <c r="P70" s="135"/>
+      <c r="Q70" s="135"/>
+      <c r="R70" s="135"/>
+      <c r="S70" s="135"/>
+    </row>
+    <row r="71" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A71" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="98" t="s">
+      <c r="B71" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="99" t="s">
+      <c r="C71" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="117" t="s">
+      <c r="D71" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126" t="s">
+      <c r="E71" s="126"/>
+      <c r="F71" s="135"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="135"/>
+      <c r="J71" s="135"/>
+      <c r="K71" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="L71" s="65"/>
-      <c r="M71" s="126"/>
-      <c r="N71" s="126"/>
-      <c r="O71" s="126"/>
-      <c r="P71" s="126"/>
-      <c r="Q71" s="126"/>
-      <c r="R71" s="126"/>
-      <c r="S71" s="126"/>
-    </row>
-    <row r="72" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A72" s="65" t="s">
+      <c r="L71" s="74"/>
+      <c r="M71" s="135"/>
+      <c r="N71" s="135"/>
+      <c r="O71" s="135"/>
+      <c r="P71" s="135"/>
+      <c r="Q71" s="135"/>
+      <c r="R71" s="135"/>
+      <c r="S71" s="135"/>
+    </row>
+    <row r="72" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A72" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="99" t="s">
+      <c r="C72" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="117"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="98" t="s">
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="135"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="135"/>
+      <c r="J72" s="135"/>
+      <c r="K72" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="L72" s="65"/>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="126"/>
-      <c r="P72" s="126"/>
-      <c r="Q72" s="126"/>
-      <c r="R72" s="126"/>
-      <c r="S72" s="126"/>
-    </row>
-    <row r="73" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A73" s="91" t="s">
+      <c r="L72" s="74"/>
+      <c r="M72" s="135"/>
+      <c r="N72" s="135"/>
+      <c r="O72" s="135"/>
+      <c r="P72" s="135"/>
+      <c r="Q72" s="135"/>
+      <c r="R72" s="135"/>
+      <c r="S72" s="135"/>
+    </row>
+    <row r="73" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A73" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="60"/>
-      <c r="C73" s="118"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="121"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="121"/>
-      <c r="J73" s="121"/>
-      <c r="K73" s="121"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="121"/>
-      <c r="N73" s="121"/>
-      <c r="O73" s="121"/>
-      <c r="P73" s="121"/>
-      <c r="Q73" s="121"/>
-      <c r="R73" s="121"/>
-      <c r="S73" s="121"/>
-    </row>
-    <row r="74" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A74" s="96" t="s">
+      <c r="B73" s="69"/>
+      <c r="C73" s="127"/>
+      <c r="D73" s="127"/>
+      <c r="E73" s="127"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
+      <c r="Q73" s="130"/>
+      <c r="R73" s="130"/>
+      <c r="S73" s="130"/>
+    </row>
+    <row r="74" s="75" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A74" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="65" t="s">
+      <c r="B74" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="99" t="s">
+      <c r="C74" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="98"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="98"/>
-      <c r="O74" s="98"/>
-      <c r="P74" s="98"/>
-      <c r="Q74" s="98"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="98"/>
-    </row>
-    <row r="75" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A75" s="60" t="s">
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="107"/>
+      <c r="N74" s="107"/>
+      <c r="O74" s="107"/>
+      <c r="P74" s="107"/>
+      <c r="Q74" s="107"/>
+      <c r="R74" s="107"/>
+      <c r="S74" s="107"/>
+    </row>
+    <row r="75" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A75" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="81" t="s">
+      <c r="B75" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="C75" s="119" t="s">
+      <c r="C75" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="D75" s="118"/>
-      <c r="E75" s="118"/>
-      <c r="F75" s="121"/>
-      <c r="G75" s="118"/>
-      <c r="H75" s="121"/>
-      <c r="I75" s="121"/>
-      <c r="J75" s="121"/>
-      <c r="K75" s="121" t="s">
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="130"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="130"/>
+      <c r="K75" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="L75" s="60"/>
-      <c r="M75" s="121"/>
-      <c r="N75" s="121"/>
-      <c r="O75" s="121"/>
-      <c r="P75" s="121"/>
-      <c r="Q75" s="121"/>
-      <c r="R75" s="121"/>
-      <c r="S75" s="121"/>
-    </row>
-    <row r="76" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A76" s="85" t="s">
+      <c r="L75" s="69"/>
+      <c r="M75" s="130"/>
+      <c r="N75" s="130"/>
+      <c r="O75" s="130"/>
+      <c r="P75" s="130"/>
+      <c r="Q75" s="130"/>
+      <c r="R75" s="130"/>
+      <c r="S75" s="130"/>
+    </row>
+    <row r="76" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A76" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="B76" s="116" t="s">
+      <c r="B76" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="65" t="s">
+      <c r="C76" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" s="126"/>
-      <c r="J76" s="126"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="126"/>
-      <c r="N76" s="126"/>
-      <c r="O76" s="126"/>
-      <c r="P76" s="126"/>
-      <c r="Q76" s="126"/>
-      <c r="R76" s="126"/>
-      <c r="S76" s="126"/>
-    </row>
-    <row r="77" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A77" s="65" t="s">
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="135"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="135"/>
+      <c r="J76" s="135"/>
+      <c r="K76" s="135"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="135"/>
+      <c r="N76" s="135"/>
+      <c r="O76" s="135"/>
+      <c r="P76" s="135"/>
+      <c r="Q76" s="135"/>
+      <c r="R76" s="135"/>
+      <c r="S76" s="135"/>
+    </row>
+    <row r="77" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A77" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="98" t="s">
+      <c r="B77" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="C77" s="99" t="s">
+      <c r="C77" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="D77" s="117"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="126"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77" s="126"/>
-      <c r="J77" s="126"/>
-      <c r="K77" s="127" t="s">
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="135"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="135"/>
+      <c r="J77" s="135"/>
+      <c r="K77" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="L77" s="65"/>
-      <c r="M77" s="126"/>
-      <c r="N77" s="126"/>
-      <c r="O77" s="126"/>
-      <c r="P77" s="126"/>
-      <c r="Q77" s="126"/>
-      <c r="R77" s="126"/>
-      <c r="S77" s="126"/>
-    </row>
-    <row r="78" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A78" s="65" t="s">
+      <c r="L77" s="74"/>
+      <c r="M77" s="135"/>
+      <c r="N77" s="135"/>
+      <c r="O77" s="135"/>
+      <c r="P77" s="135"/>
+      <c r="Q77" s="135"/>
+      <c r="R77" s="135"/>
+      <c r="S77" s="135"/>
+    </row>
+    <row r="78" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A78" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="B78" s="98" t="s">
+      <c r="B78" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="C78" s="99" t="s">
+      <c r="C78" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="D78" s="117"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126"/>
-      <c r="K78" s="98" t="s">
+      <c r="D78" s="126"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="135"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="135"/>
+      <c r="J78" s="135"/>
+      <c r="K78" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="L78" s="65"/>
-      <c r="M78" s="126"/>
-      <c r="N78" s="126"/>
-      <c r="O78" s="126"/>
-      <c r="P78" s="126"/>
-      <c r="Q78" s="126"/>
-      <c r="R78" s="126"/>
-      <c r="S78" s="126"/>
-    </row>
-    <row r="79" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A79" s="65" t="s">
+      <c r="L78" s="74"/>
+      <c r="M78" s="135"/>
+      <c r="N78" s="135"/>
+      <c r="O78" s="135"/>
+      <c r="P78" s="135"/>
+      <c r="Q78" s="135"/>
+      <c r="R78" s="135"/>
+      <c r="S78" s="135"/>
+    </row>
+    <row r="79" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A79" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="98" t="s">
+      <c r="B79" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="99" t="s">
+      <c r="C79" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="117"/>
-      <c r="E79" s="117"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="117"/>
-      <c r="H79" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I79" s="126"/>
-      <c r="J79" s="126"/>
-      <c r="K79" s="127" t="s">
+      <c r="D79" s="126"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" s="135"/>
+      <c r="J79" s="135"/>
+      <c r="K79" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="L79" s="65"/>
-      <c r="M79" s="126"/>
-      <c r="N79" s="126"/>
-      <c r="O79" s="126"/>
-      <c r="P79" s="126"/>
-      <c r="Q79" s="126"/>
-      <c r="R79" s="126"/>
-      <c r="S79" s="126"/>
-    </row>
-    <row r="80" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A80" s="65" t="s">
+      <c r="L79" s="74"/>
+      <c r="M79" s="135"/>
+      <c r="N79" s="135"/>
+      <c r="O79" s="135"/>
+      <c r="P79" s="135"/>
+      <c r="Q79" s="135"/>
+      <c r="R79" s="135"/>
+      <c r="S79" s="135"/>
+    </row>
+    <row r="80" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A80" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="98" t="s">
+      <c r="B80" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="C80" s="120" t="s">
+      <c r="C80" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="117" t="s">
+      <c r="D80" s="126" t="s">
         <v>236</v>
       </c>
-      <c r="E80" s="117"/>
-      <c r="F80" s="126"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" s="126"/>
-      <c r="J80" s="126"/>
-      <c r="K80" s="98" t="s">
+      <c r="E80" s="126"/>
+      <c r="F80" s="135"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" s="135"/>
+      <c r="J80" s="135"/>
+      <c r="K80" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="L80" s="65"/>
-      <c r="M80" s="126"/>
-      <c r="N80" s="126"/>
-      <c r="O80" s="126"/>
-      <c r="P80" s="126"/>
-      <c r="Q80" s="126"/>
-      <c r="R80" s="126"/>
-      <c r="S80" s="126"/>
-    </row>
-    <row r="81" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A81" s="65" t="s">
+      <c r="L80" s="74"/>
+      <c r="M80" s="135"/>
+      <c r="N80" s="135"/>
+      <c r="O80" s="135"/>
+      <c r="P80" s="135"/>
+      <c r="Q80" s="135"/>
+      <c r="R80" s="135"/>
+      <c r="S80" s="135"/>
+    </row>
+    <row r="81" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A81" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="99" t="s">
+      <c r="B81" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="120" t="s">
+      <c r="C81" s="129" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="117" t="s">
+      <c r="D81" s="126" t="s">
         <v>236</v>
       </c>
-      <c r="E81" s="117"/>
-      <c r="F81" s="126"/>
-      <c r="G81" s="117"/>
-      <c r="H81" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" s="126"/>
-      <c r="J81" s="126"/>
-      <c r="K81" s="98" t="s">
+      <c r="E81" s="126"/>
+      <c r="F81" s="135"/>
+      <c r="G81" s="126"/>
+      <c r="H81" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" s="135"/>
+      <c r="J81" s="135"/>
+      <c r="K81" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="L81" s="65"/>
-      <c r="M81" s="126"/>
-      <c r="N81" s="126"/>
-      <c r="O81" s="126"/>
-      <c r="P81" s="126"/>
-      <c r="Q81" s="126"/>
-      <c r="R81" s="126"/>
-      <c r="S81" s="126"/>
-    </row>
-    <row r="82" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A82" s="65" t="s">
+      <c r="L81" s="74"/>
+      <c r="M81" s="135"/>
+      <c r="N81" s="135"/>
+      <c r="O81" s="135"/>
+      <c r="P81" s="135"/>
+      <c r="Q81" s="135"/>
+      <c r="R81" s="135"/>
+      <c r="S81" s="135"/>
+    </row>
+    <row r="82" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A82" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="98" t="s">
+      <c r="B82" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="C82" s="120" t="s">
+      <c r="C82" s="129" t="s">
         <v>241</v>
       </c>
-      <c r="D82" s="117" t="s">
+      <c r="D82" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="E82" s="117"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="117"/>
-      <c r="H82" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" s="126"/>
-      <c r="J82" s="126"/>
-      <c r="K82" s="98" t="s">
+      <c r="E82" s="126"/>
+      <c r="F82" s="135"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" s="135"/>
+      <c r="J82" s="135"/>
+      <c r="K82" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="L82" s="65"/>
-      <c r="M82" s="126"/>
-      <c r="N82" s="126"/>
-      <c r="O82" s="126"/>
-      <c r="P82" s="126"/>
-      <c r="Q82" s="126"/>
-      <c r="R82" s="126"/>
-      <c r="S82" s="126"/>
-    </row>
-    <row r="83" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A83" s="91" t="s">
+      <c r="L82" s="74"/>
+      <c r="M82" s="135"/>
+      <c r="N82" s="135"/>
+      <c r="O82" s="135"/>
+      <c r="P82" s="135"/>
+      <c r="Q82" s="135"/>
+      <c r="R82" s="135"/>
+      <c r="S82" s="135"/>
+    </row>
+    <row r="83" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A83" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="121"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="121"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="121"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="121"/>
-      <c r="K83" s="121"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="121"/>
-      <c r="N83" s="121"/>
-      <c r="O83" s="121"/>
-      <c r="P83" s="121"/>
-      <c r="Q83" s="121"/>
-      <c r="R83" s="121"/>
-      <c r="S83" s="121"/>
-    </row>
-    <row r="84" s="72" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A84" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" s="114" t="s">
+      <c r="B83" s="130"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="130"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="130"/>
+      <c r="I83" s="130"/>
+      <c r="J83" s="130"/>
+      <c r="K83" s="130"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="130"/>
+      <c r="N83" s="130"/>
+      <c r="O83" s="130"/>
+      <c r="P83" s="130"/>
+      <c r="Q83" s="130"/>
+      <c r="R83" s="130"/>
+      <c r="S83" s="130"/>
+    </row>
+    <row r="84" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A84" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="115" t="s">
+      <c r="C84" s="128" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="E84" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="F84" s="122"/>
-      <c r="G84" s="123"/>
-      <c r="H84" s="122"/>
-      <c r="I84" s="122"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="122"/>
-      <c r="L84" s="122" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84" s="122"/>
-      <c r="N84" s="122"/>
-      <c r="O84" s="122"/>
-      <c r="P84" s="122"/>
-      <c r="Q84" s="122"/>
-      <c r="R84" s="122"/>
-      <c r="S84" s="122"/>
-    </row>
-    <row r="85" s="72" customFormat="1" ht="15" customHeight="1" spans="1:19">
-      <c r="A85" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="114" t="s">
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="130"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="130"/>
+      <c r="J84" s="130"/>
+      <c r="K84" s="130"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="130"/>
+      <c r="N84" s="130"/>
+      <c r="O84" s="130"/>
+      <c r="P84" s="130"/>
+      <c r="Q84" s="130"/>
+      <c r="R84" s="130"/>
+      <c r="S84" s="130"/>
+    </row>
+    <row r="85" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A85" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="115" t="s">
+      <c r="C85" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="D85" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="E85" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="F85" s="122"/>
-      <c r="G85" s="123"/>
-      <c r="H85" s="122"/>
-      <c r="I85" s="122"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="122"/>
-      <c r="L85" s="122" t="b">
-        <v>1</v>
-      </c>
-      <c r="M85" s="122"/>
-      <c r="N85" s="122"/>
-      <c r="O85" s="122"/>
-      <c r="P85" s="122"/>
-      <c r="Q85" s="122"/>
-      <c r="R85" s="122"/>
-      <c r="S85" s="122"/>
-    </row>
-    <row r="86" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A86" s="76"/>
-      <c r="B86" s="76"/>
-      <c r="C86" s="77"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="123"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" s="123"/>
+      <c r="J85" s="123"/>
+      <c r="K85" s="123"/>
+      <c r="L85" s="85"/>
+      <c r="M85" s="123"/>
+      <c r="N85" s="123"/>
+      <c r="O85" s="123"/>
+      <c r="P85" s="123"/>
+      <c r="Q85" s="123"/>
+      <c r="R85" s="123"/>
+      <c r="S85" s="123"/>
+    </row>
+    <row r="86" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A86" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" s="124" t="s">
+        <v>250</v>
+      </c>
       <c r="D86" s="124"/>
       <c r="E86" s="124"/>
+      <c r="F86" s="123"/>
       <c r="G86" s="124"/>
-      <c r="L86" s="76"/>
-      <c r="M86" s="76"/>
-      <c r="N86" s="76"/>
-    </row>
-    <row r="87" s="58" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A87" s="76"/>
-      <c r="C87" s="124"/>
+      <c r="H86" s="123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="123"/>
+      <c r="J86" s="123"/>
+      <c r="K86" s="107" t="s">
+        <v>251</v>
+      </c>
+      <c r="L86" s="85"/>
+      <c r="M86" s="123"/>
+      <c r="N86" s="123"/>
+      <c r="O86" s="123"/>
+      <c r="P86" s="123"/>
+      <c r="Q86" s="123"/>
+      <c r="R86" s="123"/>
+      <c r="S86" s="123"/>
+    </row>
+    <row r="87" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A87" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="124" t="s">
+        <v>253</v>
+      </c>
       <c r="D87" s="124"/>
       <c r="E87" s="124"/>
+      <c r="F87" s="123"/>
       <c r="G87" s="124"/>
-    </row>
-    <row r="88" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C88" s="125"/>
-      <c r="D88" s="125"/>
-      <c r="E88" s="125"/>
-      <c r="G88" s="125"/>
-    </row>
-    <row r="89" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
-      <c r="G89" s="125"/>
-    </row>
-    <row r="90" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C90" s="125"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="125"/>
-      <c r="G90" s="125"/>
-    </row>
-    <row r="91" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C91" s="125"/>
-      <c r="D91" s="125"/>
-      <c r="E91" s="125"/>
-      <c r="G91" s="125"/>
-    </row>
-    <row r="92" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C92" s="125"/>
-      <c r="D92" s="125"/>
-      <c r="E92" s="125"/>
-      <c r="G92" s="125"/>
-    </row>
-    <row r="93" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
-      <c r="G93" s="125"/>
-    </row>
-    <row r="94" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C94" s="125"/>
-      <c r="D94" s="125"/>
-      <c r="E94" s="125"/>
-      <c r="G94" s="125"/>
-    </row>
-    <row r="95" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C95" s="125"/>
-      <c r="D95" s="125"/>
-      <c r="E95" s="125"/>
-      <c r="G95" s="125"/>
-    </row>
-    <row r="96" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C96" s="125"/>
-      <c r="D96" s="125"/>
-      <c r="E96" s="125"/>
-      <c r="G96" s="125"/>
-    </row>
-    <row r="97" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C97" s="125"/>
-      <c r="D97" s="125"/>
-      <c r="E97" s="125"/>
-      <c r="G97" s="125"/>
-    </row>
-    <row r="98" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C98" s="125"/>
-      <c r="D98" s="125"/>
-      <c r="E98" s="125"/>
-      <c r="G98" s="125"/>
-    </row>
-    <row r="99" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C99" s="125"/>
-      <c r="D99" s="125"/>
-      <c r="E99" s="125"/>
-      <c r="G99" s="125"/>
-    </row>
-    <row r="100" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C100" s="125"/>
-      <c r="D100" s="125"/>
-      <c r="E100" s="125"/>
-      <c r="G100" s="125"/>
-    </row>
-    <row r="101" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C101" s="125"/>
-      <c r="D101" s="125"/>
-      <c r="E101" s="125"/>
-      <c r="G101" s="125"/>
-    </row>
-    <row r="102" s="57" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C102" s="125"/>
-      <c r="D102" s="125"/>
-      <c r="E102" s="125"/>
-      <c r="G102" s="125"/>
+      <c r="H87" s="123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" s="123"/>
+      <c r="J87" s="123"/>
+      <c r="K87" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="L87" s="85"/>
+      <c r="M87" s="123"/>
+      <c r="N87" s="123"/>
+      <c r="O87" s="123"/>
+      <c r="P87" s="123"/>
+      <c r="Q87" s="123"/>
+      <c r="R87" s="123"/>
+      <c r="S87" s="123"/>
+    </row>
+    <row r="88" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A88" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="123" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="123"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" s="123"/>
+      <c r="J88" s="123"/>
+      <c r="K88" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="L88" s="85"/>
+      <c r="M88" s="123"/>
+      <c r="N88" s="123"/>
+      <c r="O88" s="123"/>
+      <c r="P88" s="123"/>
+      <c r="Q88" s="123"/>
+      <c r="R88" s="123"/>
+      <c r="S88" s="123"/>
+    </row>
+    <row r="89" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A89" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="130"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="130"/>
+      <c r="K89" s="130"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="130"/>
+      <c r="N89" s="130"/>
+      <c r="O89" s="130"/>
+      <c r="P89" s="130"/>
+      <c r="Q89" s="130"/>
+      <c r="R89" s="130"/>
+      <c r="S89" s="130"/>
+    </row>
+    <row r="90" s="81" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A90" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="123" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" s="132" t="s">
+        <v>259</v>
+      </c>
+      <c r="E90" s="132" t="s">
+        <v>259</v>
+      </c>
+      <c r="F90" s="131"/>
+      <c r="G90" s="132"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="131"/>
+      <c r="J90" s="131"/>
+      <c r="K90" s="131"/>
+      <c r="L90" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" s="131"/>
+      <c r="N90" s="131"/>
+      <c r="O90" s="131"/>
+      <c r="P90" s="131"/>
+      <c r="Q90" s="131"/>
+      <c r="R90" s="131"/>
+      <c r="S90" s="131"/>
+    </row>
+    <row r="91" s="81" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A91" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="123" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="D91" s="132" t="s">
+        <v>259</v>
+      </c>
+      <c r="E91" s="132" t="s">
+        <v>259</v>
+      </c>
+      <c r="F91" s="131"/>
+      <c r="G91" s="132"/>
+      <c r="H91" s="131"/>
+      <c r="I91" s="131"/>
+      <c r="J91" s="131"/>
+      <c r="K91" s="131"/>
+      <c r="L91" s="131" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" s="131"/>
+      <c r="N91" s="131"/>
+      <c r="O91" s="131"/>
+      <c r="P91" s="131"/>
+      <c r="Q91" s="131"/>
+      <c r="R91" s="131"/>
+      <c r="S91" s="131"/>
+    </row>
+    <row r="92" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+      <c r="A92" s="85"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="133"/>
+      <c r="E92" s="133"/>
+      <c r="G92" s="133"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="85"/>
+    </row>
+    <row r="93" s="67" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A93" s="85"/>
+      <c r="C93" s="133"/>
+      <c r="D93" s="133"/>
+      <c r="E93" s="133"/>
+      <c r="G93" s="133"/>
+    </row>
+    <row r="94" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C94" s="134"/>
+      <c r="D94" s="134"/>
+      <c r="E94" s="134"/>
+      <c r="G94" s="134"/>
+    </row>
+    <row r="95" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C95" s="134"/>
+      <c r="D95" s="134"/>
+      <c r="E95" s="134"/>
+      <c r="G95" s="134"/>
+    </row>
+    <row r="96" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C96" s="134"/>
+      <c r="D96" s="134"/>
+      <c r="E96" s="134"/>
+      <c r="G96" s="134"/>
+    </row>
+    <row r="97" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C97" s="134"/>
+      <c r="D97" s="134"/>
+      <c r="E97" s="134"/>
+      <c r="G97" s="134"/>
+    </row>
+    <row r="98" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C98" s="134"/>
+      <c r="D98" s="134"/>
+      <c r="E98" s="134"/>
+      <c r="G98" s="134"/>
+    </row>
+    <row r="99" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C99" s="134"/>
+      <c r="D99" s="134"/>
+      <c r="E99" s="134"/>
+      <c r="G99" s="134"/>
+    </row>
+    <row r="100" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C100" s="134"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="134"/>
+      <c r="G100" s="134"/>
+    </row>
+    <row r="101" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C101" s="134"/>
+      <c r="D101" s="134"/>
+      <c r="E101" s="134"/>
+      <c r="G101" s="134"/>
+    </row>
+    <row r="102" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C102" s="134"/>
+      <c r="D102" s="134"/>
+      <c r="E102" s="134"/>
+      <c r="G102" s="134"/>
+    </row>
+    <row r="103" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C103" s="134"/>
+      <c r="D103" s="134"/>
+      <c r="E103" s="134"/>
+      <c r="G103" s="134"/>
+    </row>
+    <row r="104" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C104" s="134"/>
+      <c r="D104" s="134"/>
+      <c r="E104" s="134"/>
+      <c r="G104" s="134"/>
+    </row>
+    <row r="105" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C105" s="134"/>
+      <c r="D105" s="134"/>
+      <c r="E105" s="134"/>
+      <c r="G105" s="134"/>
+    </row>
+    <row r="106" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C106" s="134"/>
+      <c r="D106" s="134"/>
+      <c r="E106" s="134"/>
+      <c r="G106" s="134"/>
+    </row>
+    <row r="107" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C107" s="134"/>
+      <c r="D107" s="134"/>
+      <c r="E107" s="134"/>
+      <c r="G107" s="134"/>
+    </row>
+    <row r="108" s="66" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C108" s="134"/>
+      <c r="D108" s="134"/>
+      <c r="E108" s="134"/>
+      <c r="G108" s="134"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5511,24 +5776,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7142857142857" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="13.7083333333333" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="29.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="10.7142857142857" style="10" customWidth="1"/>
-    <col min="3" max="3" width="83.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="29.1354166666667" customWidth="1"/>
+    <col min="2" max="2" width="10.7083333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="83.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -5539,607 +5804,607 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B3" s="12">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B6" s="12">
         <v>99</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B8" s="12">
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B9" s="12">
         <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B12" s="12">
         <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B13" s="12">
         <v>4</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B14" s="12">
         <v>5</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B15" s="13">
         <v>98</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B17" s="12">
         <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B18" s="12">
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B19" s="12">
         <v>4</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B20" s="12">
         <v>5</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B21" s="12">
         <v>6</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B22" s="12">
         <v>7</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B24" s="12">
         <v>1</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="11" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B25" s="12">
         <v>2</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" s="11" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B26" s="12">
         <v>3</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B27" s="12">
         <v>4</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B28" s="12">
         <v>5</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
       <c r="A29" s="11" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
       <c r="A30" s="11" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B30" s="12">
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:3">
       <c r="A31" s="11" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B31" s="12">
         <v>2</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
       <c r="A32" s="11" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B32" s="12">
         <v>3</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
       <c r="A33" s="11" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B33" s="12">
         <v>4</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:3">
       <c r="A34" s="11" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B34" s="12">
         <v>5</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B35" s="12">
         <v>6</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A37" s="14" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B37" s="15">
         <v>1</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
       <c r="A38" s="17" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B38" s="12">
         <v>2</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:3">
       <c r="A39" s="17" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B39" s="12">
         <v>3</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A40" s="17" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B40" s="18">
         <v>4</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A41" s="14" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:3">
       <c r="A42" s="17" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B42" s="12">
         <v>2</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:3">
       <c r="A43" s="17" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B43" s="12">
         <v>3</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:3">
       <c r="A44" s="17" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B44" s="12">
         <v>4</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:3">
       <c r="A45" s="17" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B45" s="12">
         <v>5</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:3">
       <c r="A46" s="17" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B46" s="12">
         <v>7</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A47" s="17" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A48" s="14" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B48" s="15">
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
       <c r="A49" s="17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B49" s="12">
         <v>2</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
       <c r="A50" s="17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B50" s="12">
         <v>3</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
       <c r="A51" s="17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B51" s="12">
         <v>4</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" s="17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B52" s="12">
         <v>5</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" s="17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B53" s="12">
         <v>6</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
       <c r="A54" s="17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B54" s="12">
         <v>7</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
       <c r="A55" s="17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B55" s="12">
         <v>8</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A56" s="17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -6150,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
@@ -6161,7 +6426,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
@@ -6172,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
@@ -6183,7 +6448,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
@@ -6194,7 +6459,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
@@ -6205,7 +6470,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
@@ -6216,7 +6481,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1" customHeight="1" spans="1:3">
@@ -6224,794 +6489,882 @@
         <v>134</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A65" s="25" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B65" s="26">
         <v>1</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A66" s="25" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B66" s="26">
         <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A67" s="25" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B67" s="26">
         <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A68" s="25" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A69" s="25" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B69" s="26">
         <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A70" s="25" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B70" s="26">
         <v>6</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A71" s="25" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B71" s="26">
         <v>7</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A72" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B72" s="26">
+        <v>328</v>
+      </c>
+      <c r="B72" s="21">
+        <v>8</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A73" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73" s="26">
         <v>98</v>
       </c>
-      <c r="C72" s="25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="73" s="5" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A73" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B73" s="28">
-        <v>1</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="74" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A74" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="B74" s="26">
+      <c r="C73" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A74" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B74" s="29">
+        <v>1</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A75" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75" s="26">
         <v>2</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="75" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A75" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="B75" s="26">
+      <c r="C75" s="25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A76" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B76" s="26">
         <v>3</v>
       </c>
-      <c r="C75" s="25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A76" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="B76" s="32">
+      <c r="C76" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A77" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" s="33">
         <v>4</v>
       </c>
-      <c r="C76" s="33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A77" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B77" s="34">
-        <v>1</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="78" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A78" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B78" s="26">
+      <c r="C77" s="34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" s="7" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A78" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="35">
+        <v>1</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A79" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" s="26">
         <v>2</v>
       </c>
-      <c r="C78" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="79" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A79" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B79" s="26">
+      <c r="C79" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="80" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A80" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B80" s="26">
         <v>3</v>
       </c>
-      <c r="C79" s="25" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="80" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A80" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B80" s="26">
+      <c r="C80" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A81" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B81" s="26">
         <v>4</v>
       </c>
-      <c r="C80" s="25" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="81" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A81" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B81" s="26">
+      <c r="C81" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A82" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" s="26">
         <v>5</v>
       </c>
-      <c r="C81" s="25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="82" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A82" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="B82" s="36">
+      <c r="C82" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A83" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B83" s="37">
         <v>99</v>
       </c>
-      <c r="C82" s="33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A83" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="B83" s="34">
-        <v>1</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="84" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A84" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="B84" s="26">
+      <c r="C83" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" s="7" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A84" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B84" s="35">
+        <v>1</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A85" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" s="26">
         <v>2</v>
       </c>
-      <c r="C84" s="25" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="B85" s="26">
+      <c r="C85" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A86" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B86" s="26">
         <v>3</v>
       </c>
-      <c r="C85" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="86" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A86" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B86" s="36">
+      <c r="C86" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A87" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B87" s="37">
         <v>98</v>
       </c>
-      <c r="C86" s="33" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="87" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A87" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B87" s="34">
-        <v>1</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="88" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A88" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B88" s="26">
+      <c r="C87" s="34" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" s="7" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A88" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B88" s="35">
+        <v>1</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A89" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B89" s="26">
         <v>2</v>
       </c>
-      <c r="C88" s="25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="89" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A89" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B89" s="32">
+      <c r="C89" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="90" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A90" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="B90" s="39">
         <v>3</v>
       </c>
-      <c r="C89" s="33" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="90" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A90" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="B90" s="34">
-        <v>1</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>344</v>
+      <c r="C90" s="40" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A91" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="B91" s="26">
+      <c r="A91" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="B91" s="21">
+        <v>98</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="92" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A92" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="B92" s="42">
+        <v>99</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" s="7" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A93" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B93" s="35">
+        <v>1</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A94" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B94" s="26">
         <v>2</v>
       </c>
-      <c r="C91" s="25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="92" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A92" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="B92" s="26">
+      <c r="C94" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A95" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B95" s="26">
         <v>3</v>
       </c>
-      <c r="C92" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="93" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A93" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="B93" s="38">
-        <v>1</v>
-      </c>
-      <c r="C93" s="39" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="94" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A94" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="B94" s="41">
+      <c r="C95" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" s="8" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A96" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="B96" s="45">
+        <v>1</v>
+      </c>
+      <c r="C96" s="46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="97" s="9" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A97" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="B97" s="48">
         <v>2</v>
       </c>
-      <c r="C94" s="42" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="95" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A95" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="B95" s="41">
+      <c r="C97" s="49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="98" s="9" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A98" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="B98" s="48">
         <v>3</v>
       </c>
-      <c r="C95" s="42" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="96" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A96" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="B96" s="32">
+      <c r="C98" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="99" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A99" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" s="33">
         <v>4</v>
       </c>
-      <c r="C96" s="33" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="97" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A97" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="B97" s="41">
-        <v>1</v>
-      </c>
-      <c r="C97" s="42" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="98" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A98" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="B98" s="26">
+      <c r="C99" s="34" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" s="9" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A100" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B100" s="48">
+        <v>1</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A101" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B101" s="26">
         <v>2</v>
       </c>
-      <c r="C98" s="25" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="99" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A99" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="B99" s="26">
+      <c r="C101" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A102" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B102" s="26">
         <v>3</v>
       </c>
-      <c r="C99" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="100" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A100" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="B100" s="26">
+      <c r="C102" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A103" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B103" s="26">
         <v>4</v>
       </c>
-      <c r="C100" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="101" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A101" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="B101" s="26">
+      <c r="C103" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A104" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" s="26">
         <v>5</v>
       </c>
-      <c r="C101" s="25" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="102" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A102" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="B102" s="26">
+      <c r="C104" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="105" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A105" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B105" s="26">
         <v>6</v>
       </c>
-      <c r="C102" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="103" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A103" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="B103" s="32">
+      <c r="C105" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A106" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B106" s="33">
         <v>7</v>
       </c>
-      <c r="C103" s="33" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="104" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A104" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="B104" s="26">
-        <v>1</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="105" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A105" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="B105" s="26">
-        <v>2</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="106" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A106" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="B106" s="26">
-        <v>3</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>363</v>
+      <c r="C106" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A107" s="25" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="B107" s="26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A108" s="25" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="B108" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A109" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="B109" s="21">
+        <v>375</v>
+      </c>
+      <c r="B109" s="26">
+        <v>3</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A110" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B110" s="26">
+        <v>4</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A111" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B111" s="26">
+        <v>5</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="112" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A112" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B112" s="21">
         <v>98</v>
       </c>
-      <c r="C109" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="110" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A110" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B110" s="38">
-        <v>1</v>
-      </c>
-      <c r="C110" s="39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="111" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A111" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B111" s="26">
+      <c r="C112" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="113" s="8" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A113" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B113" s="45">
+        <v>1</v>
+      </c>
+      <c r="C113" s="46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="114" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A114" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B114" s="26">
         <v>2</v>
       </c>
-      <c r="C111" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="112" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A112" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B112" s="26">
+      <c r="C114" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A115" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B115" s="26">
         <v>3</v>
       </c>
-      <c r="C112" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="113" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A113" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B113" s="26">
+      <c r="C115" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A116" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B116" s="26">
         <v>4</v>
       </c>
-      <c r="C113" s="25" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="114" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A114" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B114" s="26">
+      <c r="C116" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A117" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B117" s="26">
         <v>5</v>
       </c>
-      <c r="C114" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A115" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B115" s="26">
+      <c r="C117" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A118" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B118" s="26">
         <v>6</v>
       </c>
-      <c r="C115" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="116" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A116" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B116" s="26">
+      <c r="C118" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="119" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A119" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B119" s="26">
         <v>7</v>
       </c>
-      <c r="C116" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="117" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A117" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B117" s="36">
+      <c r="C119" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A120" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B120" s="37">
         <v>98</v>
       </c>
-      <c r="C117" s="33" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="118" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A118" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="B118" s="45">
-        <v>1</v>
-      </c>
-      <c r="C118" s="44" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="119" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A119" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="B119" s="47">
+      <c r="C120" s="34" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="121" s="7" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A121" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="B121" s="52">
+        <v>1</v>
+      </c>
+      <c r="C121" s="51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A122" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B122" s="54">
         <v>2</v>
       </c>
-      <c r="C119" s="48" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="120" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A120" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="B120" s="47">
+      <c r="C122" s="55" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A123" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B123" s="54">
         <v>3</v>
       </c>
-      <c r="C120" s="48" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="121" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A121" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="B121" s="47">
+      <c r="C123" s="55" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="124" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A124" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B124" s="54">
         <v>4</v>
       </c>
-      <c r="C121" s="48" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="122" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A122" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="B122" s="49">
+      <c r="C124" s="55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="125" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A125" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B125" s="56">
         <v>98</v>
       </c>
-      <c r="C122" s="48" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="123" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A123" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="B123" s="51">
-        <v>1</v>
-      </c>
-      <c r="C123" s="52" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="124" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A124" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="B124" s="47">
+      <c r="C125" s="55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="126" s="8" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A126" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="B126" s="58">
+        <v>1</v>
+      </c>
+      <c r="C126" s="59" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="127" s="9" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A127" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="B127" s="54">
         <v>2</v>
       </c>
-      <c r="C124" s="46" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="125" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A125" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="B125" s="51">
-        <v>1</v>
-      </c>
-      <c r="C125" s="52" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A126" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="B126" s="26">
-        <v>2</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="127" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A127" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="B127" s="54">
-        <v>99</v>
-      </c>
-      <c r="C127" s="46" t="s">
-        <v>255</v>
+      <c r="C127" s="53" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="128" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A128" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B128" s="38">
-        <v>1</v>
-      </c>
-      <c r="C128" s="52" t="s">
-        <v>384</v>
+      <c r="A128" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="B128" s="58">
+        <v>1</v>
+      </c>
+      <c r="C128" s="59" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A129" s="40" t="s">
-        <v>177</v>
+      <c r="A129" s="57" t="s">
+        <v>397</v>
       </c>
       <c r="B129" s="26">
         <v>2</v>
       </c>
-      <c r="C129" s="48" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="130" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A130" s="40" t="s">
+      <c r="C129" s="55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="130" s="9" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A130" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="B130" s="61">
+        <v>99</v>
+      </c>
+      <c r="C130" s="53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" s="8" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A131" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="B130" s="26">
+      <c r="B131" s="45">
+        <v>1</v>
+      </c>
+      <c r="C131" s="59" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="132" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A132" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="26">
+        <v>2</v>
+      </c>
+      <c r="C132" s="55" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A133" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" s="26">
         <v>3</v>
       </c>
-      <c r="C130" s="48" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="131" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A131" s="40" t="s">
+      <c r="C133" s="55" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="134" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A134" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B131" s="26">
+      <c r="B134" s="26">
         <v>4</v>
       </c>
-      <c r="C131" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="132" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A132" s="43" t="s">
+      <c r="C134" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="135" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A135" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="B132" s="36">
+      <c r="B135" s="37">
         <v>98</v>
       </c>
-      <c r="C132" s="55" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="133" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A133" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B133" s="56">
-        <v>1</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A134" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B134" s="56">
+      <c r="C135" s="62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="136" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A136" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" s="63">
+        <v>1</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="137" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A137" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B137" s="63">
         <v>2</v>
       </c>
-      <c r="C134" s="25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="135" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A135" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B135" s="56">
+      <c r="C137" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A138" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138" s="63">
         <v>3</v>
       </c>
-      <c r="C135" s="25" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="167" ht="13.5" customHeight="1"/>
+      <c r="C138" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:3">
+      <c r="A140" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B140" s="65">
+        <v>1</v>
+      </c>
+      <c r="C140" s="64" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:3">
+      <c r="A141" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B141" s="65">
+        <v>2</v>
+      </c>
+      <c r="C141" s="64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:3">
+      <c r="A142" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B142" s="65">
+        <v>3</v>
+      </c>
+      <c r="C142" s="64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:3">
+      <c r="A143" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B143" s="65">
+        <v>4</v>
+      </c>
+      <c r="C143" s="64" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:3">
+      <c r="A144" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B144" s="65">
+        <v>99</v>
+      </c>
+      <c r="C144" s="64" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="170" ht="13.5" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.510416666666667" footer="0.510416666666667"/>
@@ -7029,33 +7382,33 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.42708333333333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="23.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="36.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="24.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.2916666666667" customWidth="1"/>
+    <col min="3" max="3" width="36.4270833333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/location_details.xlsx
+++ b/xforms/xlsforms/location_details.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16758" windowHeight="6020" tabRatio="272" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13125" tabRatio="272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -77,12 +77,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="K84" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">paul:
+Removed from Form in 2018</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418">
   <si>
     <t>type</t>
   </si>
@@ -821,6 +835,9 @@
   </si>
   <si>
     <t>A seguir perguntas sobre: Censo INE 2017</t>
+  </si>
+  <si>
+    <t>1=0</t>
   </si>
   <si>
     <t>registered</t>
@@ -1341,12 +1358,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1385,6 +1402,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1411,16 +1443,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1433,40 +1479,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,20 +1505,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1510,18 +1533,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1533,6 +1556,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1541,10 +1580,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1554,8 +1593,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1612,7 +1665,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,31 +1695,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,31 +1719,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,7 +1743,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,13 +1773,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,61 +1839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,32 +1974,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1951,15 +1984,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1988,6 +2012,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1996,153 +2046,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2257,9 +2316,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2287,12 +2343,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2386,7 +2436,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2410,7 +2466,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2459,7 +2515,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2468,7 +2524,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2477,7 +2533,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2519,13 +2575,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2534,6 +2590,33 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2546,10 +2629,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2967,969 +3059,969 @@
   <dimension ref="A1:S108"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomRight" activeCell="B84" sqref="B84:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5729166666667" customWidth="1"/>
-    <col min="2" max="2" width="26.8645833333333" customWidth="1"/>
-    <col min="3" max="3" width="60.9166666666667" style="82" customWidth="1"/>
-    <col min="4" max="4" width="93" style="82" customWidth="1"/>
-    <col min="5" max="5" width="26.4270833333333" style="82" customWidth="1"/>
+    <col min="1" max="1" width="36.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="26.8666666666667" customWidth="1"/>
+    <col min="3" max="3" width="60.9142857142857" style="81" customWidth="1"/>
+    <col min="4" max="4" width="93" style="81" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" style="81" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="11" style="82" customWidth="1"/>
-    <col min="8" max="8" width="13.5729166666667" customWidth="1"/>
-    <col min="9" max="9" width="12.8645833333333" customWidth="1"/>
-    <col min="10" max="10" width="7.86458333333333" customWidth="1"/>
-    <col min="11" max="11" width="75.1354166666667" customWidth="1"/>
-    <col min="12" max="12" width="50.4270833333333" customWidth="1"/>
-    <col min="13" max="14" width="44.1354166666667" customWidth="1"/>
-    <col min="15" max="15" width="12.4270833333333" customWidth="1"/>
-    <col min="16" max="16" width="15.7083333333333" customWidth="1"/>
+    <col min="7" max="7" width="11" style="81" customWidth="1"/>
+    <col min="8" max="8" width="13.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="12.8666666666667" customWidth="1"/>
+    <col min="10" max="10" width="7.86666666666667" customWidth="1"/>
+    <col min="11" max="11" width="75.1333333333333" customWidth="1"/>
+    <col min="12" max="12" width="50.4285714285714" customWidth="1"/>
+    <col min="13" max="14" width="44.1333333333333" customWidth="1"/>
+    <col min="15" max="15" width="12.4285714285714" customWidth="1"/>
+    <col min="16" max="16" width="15.7047619047619" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="13.7083333333333" customWidth="1"/>
-    <col min="19" max="19" width="13.8645833333333" customWidth="1"/>
-    <col min="20" max="20" width="20.1354166666667" customWidth="1"/>
-    <col min="21" max="21" width="21.1354166666667" customWidth="1"/>
+    <col min="18" max="18" width="13.7047619047619" customWidth="1"/>
+    <col min="19" max="19" width="13.8666666666667" customWidth="1"/>
+    <col min="20" max="20" width="20.1333333333333" customWidth="1"/>
+    <col min="21" max="21" width="21.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="66" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A1" s="83" t="s">
+    <row r="1" s="63" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="84" t="s">
+      <c r="B1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="O1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="Q1" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="S1" s="82" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="67" customFormat="1" ht="18" customHeight="1" spans="1:19">
-      <c r="A2" s="85" t="s">
+    <row r="2" s="64" customFormat="1" ht="18" customHeight="1" spans="1:19">
+      <c r="A2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-    </row>
-    <row r="3" s="67" customFormat="1" ht="15.75" customHeight="1" spans="1:19">
-      <c r="A3" s="85" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+    </row>
+    <row r="3" s="64" customFormat="1" ht="15.75" customHeight="1" spans="1:19">
+      <c r="A3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-    </row>
-    <row r="4" s="67" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A4" s="85" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+    </row>
+    <row r="4" s="64" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A4" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-    </row>
-    <row r="5" s="67" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A5" s="85" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+    </row>
+    <row r="5" s="64" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A5" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-    </row>
-    <row r="6" s="68" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A6" s="87" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+    </row>
+    <row r="6" s="65" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A6" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-    </row>
-    <row r="7" s="68" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A7" s="87" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+    </row>
+    <row r="7" s="65" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-    </row>
-    <row r="8" s="68" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A8" s="87" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+    </row>
+    <row r="8" s="65" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A8" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-    </row>
-    <row r="9" s="68" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A9" s="87" t="s">
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+    </row>
+    <row r="9" s="65" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A9" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-    </row>
-    <row r="10" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A10" s="87" t="s">
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+    </row>
+    <row r="10" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A10" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="104" t="s">
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-    </row>
-    <row r="11" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A11" s="87" t="s">
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+    </row>
+    <row r="11" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-    </row>
-    <row r="12" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A12" s="87" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+    </row>
+    <row r="12" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A12" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-    </row>
-    <row r="13" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A13" s="87" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+    </row>
+    <row r="13" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A13" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-    </row>
-    <row r="14" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A14" s="87" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+    </row>
+    <row r="14" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A14" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="85" t="s">
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-    </row>
-    <row r="15" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A15" s="87" t="s">
+      <c r="L14" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+    </row>
+    <row r="15" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A15" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="85" t="s">
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-    </row>
-    <row r="16" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A16" s="69" t="s">
+      <c r="L15" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+    </row>
+    <row r="16" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A16" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="G16" s="90"/>
-    </row>
-    <row r="17" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A17" s="91" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="G16" s="89"/>
+    </row>
+    <row r="17" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A17" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-    </row>
-    <row r="18" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A18" s="91" t="s">
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="91"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+    </row>
+    <row r="18" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A18" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="92"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-    </row>
-    <row r="19" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A19" s="85" t="s">
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="91"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+    </row>
+    <row r="19" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A19" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86" t="s">
+      <c r="E19" s="85"/>
+      <c r="F19" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-    </row>
-    <row r="20" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A20" s="74" t="s">
+      <c r="H19" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+    </row>
+    <row r="20" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A20" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94" t="s">
+      <c r="E20" s="93"/>
+      <c r="F20" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-    </row>
-    <row r="21" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A21" s="95" t="s">
+      <c r="G20" s="93"/>
+      <c r="H20" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+    </row>
+    <row r="21" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86" t="s">
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G21" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
+      <c r="H21" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-    </row>
-    <row r="23" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A23" s="98" t="s">
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+    </row>
+    <row r="23" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A23" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-    </row>
-    <row r="24" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A24" s="85" t="s">
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+    </row>
+    <row r="24" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A24" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="74" t="s">
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-    </row>
-    <row r="25" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A25" s="85" t="s">
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+    </row>
+    <row r="25" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A25" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-    </row>
-    <row r="26" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A26" s="85" t="s">
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+    </row>
+    <row r="26" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A26" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="74" t="s">
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-    </row>
-    <row r="27" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A27" s="85" t="s">
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+    </row>
+    <row r="27" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A27" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-    </row>
-    <row r="28" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A28" s="85" t="s">
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+    </row>
+    <row r="28" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A28" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="74" t="s">
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-    </row>
-    <row r="29" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A29" s="85" t="s">
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+    </row>
+    <row r="29" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A29" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-    </row>
-    <row r="30" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A30" s="85" t="s">
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+    </row>
+    <row r="30" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A30" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="74" t="s">
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
     </row>
     <row r="31" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A31" s="25" t="s">
@@ -3938,13 +4030,13 @@
       <c r="B31" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="98" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="99"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25" t="b">
@@ -3961,1808 +4053,1810 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
     </row>
-    <row r="32" s="72" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A32" s="100" t="s">
+    <row r="32" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A32" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="101"/>
-      <c r="E32" s="101"/>
-    </row>
-    <row r="33" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A33" s="69" t="s">
+      <c r="C32" s="100"/>
+      <c r="E32" s="100"/>
+    </row>
+    <row r="33" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A33" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="G33" s="90"/>
-    </row>
-    <row r="34" s="73" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A34" s="102" t="s">
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="G33" s="89"/>
+    </row>
+    <row r="34" s="70" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A34" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
-    </row>
-    <row r="35" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A35" s="85" t="s">
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+    </row>
+    <row r="35" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A35" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85" t="s">
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-    </row>
-    <row r="36" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A36" s="74" t="s">
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+    </row>
+    <row r="36" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A36" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74" t="s">
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-    </row>
-    <row r="37" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A37" s="74" t="s">
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+    </row>
+    <row r="37" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A37" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74" t="s">
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-    </row>
-    <row r="38" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A38" s="104" t="s">
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+    </row>
+    <row r="38" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A38" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
-    </row>
-    <row r="39" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A39" s="104" t="s">
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+    </row>
+    <row r="39" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A39" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="74" t="s">
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
-    </row>
-    <row r="40" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A40" s="85" t="s">
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+    </row>
+    <row r="40" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A40" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
-    </row>
-    <row r="41" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A41" s="85" t="s">
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+    </row>
+    <row r="41" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A41" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="74" t="s">
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="104"/>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="104"/>
-      <c r="S41" s="104"/>
-    </row>
-    <row r="42" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A42" s="100" t="s">
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+    </row>
+    <row r="42" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A42" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="G42" s="90"/>
-    </row>
-    <row r="43" s="74" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A43" s="105" t="s">
+      <c r="C42" s="100"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="G42" s="89"/>
+    </row>
+    <row r="43" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A43" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="99" t="s">
+      <c r="C43" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="G43" s="94"/>
-    </row>
-    <row r="44" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
-      <c r="A44" s="69" t="s">
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="G43" s="93"/>
+    </row>
+    <row r="44" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+      <c r="A44" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="K44" s="69" t="s">
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="K44" s="66" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A45" s="85" t="s">
+    <row r="45" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A45" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="85"/>
-      <c r="R45" s="85"/>
-      <c r="S45" s="85"/>
-    </row>
-    <row r="46" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A46" s="85" t="s">
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="84"/>
+    </row>
+    <row r="46" s="65" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A46" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="115" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="74" t="s">
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="104"/>
-      <c r="P46" s="104"/>
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-    </row>
-    <row r="47" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A47" s="74" t="s">
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+    </row>
+    <row r="47" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A47" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74" t="s">
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-    </row>
-    <row r="48" s="75" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A48" s="107" t="s">
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+    </row>
+    <row r="48" s="72" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A48" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="108" t="s">
+      <c r="C48" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107" t="s">
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="L48" s="107"/>
-      <c r="M48" s="107"/>
-      <c r="N48" s="107"/>
-      <c r="O48" s="107"/>
-      <c r="P48" s="107"/>
-      <c r="Q48" s="107"/>
-      <c r="R48" s="107"/>
-      <c r="S48" s="107"/>
-    </row>
-    <row r="49" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A49" s="74" t="s">
+      <c r="L48" s="106"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="106"/>
+      <c r="S48" s="106"/>
+    </row>
+    <row r="49" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A49" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="94" t="s">
+      <c r="C49" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="122" t="s">
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="74"/>
-      <c r="R49" s="74"/>
-      <c r="S49" s="74"/>
-    </row>
-    <row r="50" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A50" s="74" t="s">
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+    </row>
+    <row r="50" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A50" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="94" t="s">
+      <c r="C50" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74" t="s">
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="74"/>
-      <c r="R50" s="74"/>
-      <c r="S50" s="74"/>
-    </row>
-    <row r="51" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A51" s="74" t="s">
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+    </row>
+    <row r="51" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A51" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="94" t="s">
+      <c r="C51" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
-      <c r="S51" s="74"/>
-    </row>
-    <row r="52" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A52" s="74" t="s">
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+    </row>
+    <row r="52" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A52" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="94" t="s">
+      <c r="C52" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74" t="s">
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="L52" s="74"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="74"/>
-      <c r="P52" s="74"/>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="74"/>
-      <c r="S52" s="74"/>
-    </row>
-    <row r="53" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A53" s="74" t="s">
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+    </row>
+    <row r="53" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A53" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="94" t="s">
+      <c r="C53" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="E53" s="94"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="74"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="74"/>
-      <c r="S53" s="74"/>
-    </row>
-    <row r="54" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A54" s="110" t="s">
+      <c r="E53" s="93"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+    </row>
+    <row r="54" s="73" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A54" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="110" t="s">
+      <c r="B54" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="110" t="s">
+      <c r="C54" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="109" t="s">
+      <c r="D54" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="116"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="110" t="s">
+      <c r="E54" s="115"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="L54" s="110"/>
-      <c r="M54" s="110"/>
-      <c r="N54" s="110"/>
-      <c r="O54" s="110"/>
-      <c r="P54" s="110"/>
-      <c r="Q54" s="110"/>
-      <c r="R54" s="110"/>
-      <c r="S54" s="110"/>
-    </row>
-    <row r="55" s="77" customFormat="1" ht="17" customHeight="1" spans="1:19">
-      <c r="A55" s="111" t="s">
+      <c r="L54" s="109"/>
+      <c r="M54" s="109"/>
+      <c r="N54" s="109"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="109"/>
+      <c r="R54" s="109"/>
+      <c r="S54" s="109"/>
+    </row>
+    <row r="55" s="74" customFormat="1" ht="17" customHeight="1" spans="1:19">
+      <c r="A55" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="111" t="s">
+      <c r="C55" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="112" t="s">
+      <c r="D55" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="E55" s="113"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
-      <c r="K55" s="111" t="s">
+      <c r="E55" s="112"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="L55" s="111"/>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-    </row>
-    <row r="56" s="77" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A56" s="111" t="s">
+      <c r="L55" s="110"/>
+      <c r="M55" s="110"/>
+      <c r="N55" s="110"/>
+      <c r="O55" s="110"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="110"/>
+      <c r="S55" s="110"/>
+    </row>
+    <row r="56" s="74" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A56" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="111" t="s">
+      <c r="B56" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="112" t="s">
+      <c r="D56" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="E56" s="113"/>
-      <c r="F56" s="111"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" s="111"/>
-      <c r="J56" s="111"/>
-      <c r="K56" s="111" t="s">
+      <c r="E56" s="112"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="L56" s="111"/>
-      <c r="M56" s="111"/>
-      <c r="N56" s="111"/>
-      <c r="O56" s="111"/>
-      <c r="P56" s="111"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="111"/>
-      <c r="S56" s="111"/>
-    </row>
-    <row r="57" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A57" s="94" t="s">
+      <c r="L56" s="110"/>
+      <c r="M56" s="110"/>
+      <c r="N56" s="110"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="110"/>
+      <c r="R56" s="110"/>
+      <c r="S56" s="110"/>
+    </row>
+    <row r="57" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A57" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="94" t="s">
+      <c r="C57" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="109" t="s">
+      <c r="D57" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="94"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="111" t="s">
+      <c r="E57" s="93"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="L57" s="74"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="74"/>
-      <c r="Q57" s="74"/>
-      <c r="R57" s="74"/>
-      <c r="S57" s="74"/>
-    </row>
-    <row r="58" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A58" s="74" t="s">
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+    </row>
+    <row r="58" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A58" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="94" t="s">
+      <c r="C58" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="109" t="s">
+      <c r="D58" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="94"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="111" t="s">
+      <c r="E58" s="93"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="74"/>
-      <c r="R58" s="74"/>
-      <c r="S58" s="74"/>
-    </row>
-    <row r="59" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A59" s="74" t="s">
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+    </row>
+    <row r="59" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A59" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="111" t="s">
+      <c r="B59" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="94" t="s">
+      <c r="C59" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="109" t="s">
+      <c r="D59" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="E59" s="94"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="111" t="s">
+      <c r="E59" s="93"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="L59" s="74"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-    </row>
-    <row r="60" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A60" s="74" t="s">
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+    </row>
+    <row r="60" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A60" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="109"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="74"/>
-      <c r="S60" s="74"/>
-    </row>
-    <row r="61" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A61" s="74" t="s">
+      <c r="D60" s="108"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+    </row>
+    <row r="61" s="68" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A61" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="94" t="s">
+      <c r="C61" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="117" t="s">
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="G61" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="H61" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="74"/>
-      <c r="O61" s="74"/>
-      <c r="P61" s="74"/>
-      <c r="Q61" s="74"/>
-      <c r="R61" s="74"/>
-      <c r="S61" s="74"/>
-    </row>
-    <row r="62" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A62" s="100" t="s">
+      <c r="H61" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+    </row>
+    <row r="62" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A62" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="119"/>
-    </row>
-    <row r="63" s="74" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A63" s="105" t="s">
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="118"/>
+    </row>
+    <row r="63" s="71" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A63" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="94" t="s">
+      <c r="C63" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="121"/>
-    </row>
-    <row r="64" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
-      <c r="A64" s="69" t="s">
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="120"/>
+    </row>
+    <row r="64" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+      <c r="A64" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="89" t="s">
+      <c r="C64" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="K64" s="69" t="s">
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="K64" s="66" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A65" s="85" t="s">
+    <row r="65" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A65" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85" t="s">
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="L65" s="85"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="85"/>
-      <c r="O65" s="85"/>
-      <c r="P65" s="85"/>
-      <c r="Q65" s="85"/>
-      <c r="R65" s="85"/>
-      <c r="S65" s="85"/>
-    </row>
-    <row r="66" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A66" s="123" t="s">
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="84"/>
+      <c r="S65" s="84"/>
+    </row>
+    <row r="66" s="75" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A66" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="123" t="s">
+      <c r="B66" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="124" t="s">
+      <c r="C66" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" s="123"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="123" t="s">
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="122"/>
+      <c r="J66" s="122"/>
+      <c r="K66" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="L66" s="85"/>
-      <c r="M66" s="123"/>
-      <c r="N66" s="123"/>
-      <c r="O66" s="123"/>
-      <c r="P66" s="123"/>
-      <c r="Q66" s="123"/>
-      <c r="R66" s="123"/>
-      <c r="S66" s="123"/>
-    </row>
-    <row r="67" s="75" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A67" s="107" t="s">
+      <c r="L66" s="84"/>
+      <c r="M66" s="122"/>
+      <c r="N66" s="122"/>
+      <c r="O66" s="122"/>
+      <c r="P66" s="122"/>
+      <c r="Q66" s="122"/>
+      <c r="R66" s="122"/>
+      <c r="S66" s="122"/>
+    </row>
+    <row r="67" s="72" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A67" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="125" t="s">
+      <c r="B67" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="108" t="s">
+      <c r="C67" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" s="107"/>
-      <c r="J67" s="107"/>
-      <c r="K67" s="107" t="s">
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="106"/>
+      <c r="J67" s="106"/>
+      <c r="K67" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="L67" s="74"/>
-      <c r="M67" s="107"/>
-      <c r="N67" s="107"/>
-      <c r="O67" s="107"/>
-      <c r="P67" s="107"/>
-      <c r="Q67" s="107"/>
-      <c r="R67" s="107"/>
-      <c r="S67" s="107"/>
-    </row>
-    <row r="68" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A68" s="74" t="s">
+      <c r="L67" s="71"/>
+      <c r="M67" s="106"/>
+      <c r="N67" s="106"/>
+      <c r="O67" s="106"/>
+      <c r="P67" s="106"/>
+      <c r="Q67" s="106"/>
+      <c r="R67" s="106"/>
+      <c r="S67" s="106"/>
+    </row>
+    <row r="68" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A68" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="107" t="s">
+      <c r="B68" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" s="135"/>
-      <c r="J68" s="135"/>
-      <c r="K68" s="107" t="s">
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="143"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="143"/>
+      <c r="J68" s="143"/>
+      <c r="K68" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="L68" s="74"/>
-      <c r="M68" s="135"/>
-      <c r="N68" s="135"/>
-      <c r="O68" s="135"/>
-      <c r="P68" s="135"/>
-      <c r="Q68" s="135"/>
-      <c r="R68" s="135"/>
-      <c r="S68" s="135"/>
-    </row>
-    <row r="69" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A69" s="74" t="s">
+      <c r="L68" s="71"/>
+      <c r="M68" s="143"/>
+      <c r="N68" s="143"/>
+      <c r="O68" s="143"/>
+      <c r="P68" s="143"/>
+      <c r="Q68" s="143"/>
+      <c r="R68" s="143"/>
+      <c r="S68" s="143"/>
+    </row>
+    <row r="69" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A69" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="107" t="s">
+      <c r="B69" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="126" t="s">
+      <c r="D69" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="126"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" s="135"/>
-      <c r="J69" s="135"/>
-      <c r="K69" s="135" t="s">
+      <c r="E69" s="125"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="143"/>
+      <c r="J69" s="143"/>
+      <c r="K69" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="L69" s="74"/>
-      <c r="M69" s="135"/>
-      <c r="N69" s="135"/>
-      <c r="O69" s="135"/>
-      <c r="P69" s="135"/>
-      <c r="Q69" s="135"/>
-      <c r="R69" s="135"/>
-      <c r="S69" s="135"/>
-    </row>
-    <row r="70" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A70" s="74" t="s">
+      <c r="L69" s="71"/>
+      <c r="M69" s="143"/>
+      <c r="N69" s="143"/>
+      <c r="O69" s="143"/>
+      <c r="P69" s="143"/>
+      <c r="Q69" s="143"/>
+      <c r="R69" s="143"/>
+      <c r="S69" s="143"/>
+    </row>
+    <row r="70" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A70" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="125" t="s">
+      <c r="B70" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="108" t="s">
+      <c r="C70" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="126" t="s">
+      <c r="D70" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="E70" s="126"/>
-      <c r="F70" s="135"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" s="135"/>
-      <c r="J70" s="135"/>
-      <c r="K70" s="135" t="s">
+      <c r="E70" s="125"/>
+      <c r="F70" s="143"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="143"/>
+      <c r="J70" s="143"/>
+      <c r="K70" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="L70" s="74"/>
-      <c r="M70" s="135"/>
-      <c r="N70" s="135"/>
-      <c r="O70" s="135"/>
-      <c r="P70" s="135"/>
-      <c r="Q70" s="135"/>
-      <c r="R70" s="135"/>
-      <c r="S70" s="135"/>
-    </row>
-    <row r="71" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A71" s="74" t="s">
+      <c r="L70" s="71"/>
+      <c r="M70" s="143"/>
+      <c r="N70" s="143"/>
+      <c r="O70" s="143"/>
+      <c r="P70" s="143"/>
+      <c r="Q70" s="143"/>
+      <c r="R70" s="143"/>
+      <c r="S70" s="143"/>
+    </row>
+    <row r="71" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A71" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="107" t="s">
+      <c r="B71" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="108" t="s">
+      <c r="C71" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="126" t="s">
+      <c r="D71" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="126"/>
-      <c r="F71" s="135"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" s="135"/>
-      <c r="J71" s="135"/>
-      <c r="K71" s="135" t="s">
+      <c r="E71" s="125"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="143"/>
+      <c r="J71" s="143"/>
+      <c r="K71" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="L71" s="74"/>
-      <c r="M71" s="135"/>
-      <c r="N71" s="135"/>
-      <c r="O71" s="135"/>
-      <c r="P71" s="135"/>
-      <c r="Q71" s="135"/>
-      <c r="R71" s="135"/>
-      <c r="S71" s="135"/>
-    </row>
-    <row r="72" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A72" s="74" t="s">
+      <c r="L71" s="71"/>
+      <c r="M71" s="143"/>
+      <c r="N71" s="143"/>
+      <c r="O71" s="143"/>
+      <c r="P71" s="143"/>
+      <c r="Q71" s="143"/>
+      <c r="R71" s="143"/>
+      <c r="S71" s="143"/>
+    </row>
+    <row r="72" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A72" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="74" t="s">
+      <c r="B72" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="108" t="s">
+      <c r="C72" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="135"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" s="135"/>
-      <c r="J72" s="135"/>
-      <c r="K72" s="107" t="s">
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="143"/>
+      <c r="G72" s="125"/>
+      <c r="H72" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="143"/>
+      <c r="J72" s="143"/>
+      <c r="K72" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="L72" s="74"/>
-      <c r="M72" s="135"/>
-      <c r="N72" s="135"/>
-      <c r="O72" s="135"/>
-      <c r="P72" s="135"/>
-      <c r="Q72" s="135"/>
-      <c r="R72" s="135"/>
-      <c r="S72" s="135"/>
-    </row>
-    <row r="73" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A73" s="100" t="s">
+      <c r="L72" s="71"/>
+      <c r="M72" s="143"/>
+      <c r="N72" s="143"/>
+      <c r="O72" s="143"/>
+      <c r="P72" s="143"/>
+      <c r="Q72" s="143"/>
+      <c r="R72" s="143"/>
+      <c r="S72" s="143"/>
+    </row>
+    <row r="73" s="77" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A73" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="69"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="127"/>
-      <c r="F73" s="130"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="130"/>
-      <c r="I73" s="130"/>
-      <c r="J73" s="130"/>
-      <c r="K73" s="130"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="130"/>
-      <c r="N73" s="130"/>
-      <c r="O73" s="130"/>
-      <c r="P73" s="130"/>
-      <c r="Q73" s="130"/>
-      <c r="R73" s="130"/>
-      <c r="S73" s="130"/>
-    </row>
-    <row r="74" s="75" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A74" s="105" t="s">
+      <c r="B73" s="66"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="129"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="129"/>
+      <c r="I73" s="129"/>
+      <c r="J73" s="129"/>
+      <c r="K73" s="129"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="129"/>
+      <c r="N73" s="129"/>
+      <c r="O73" s="129"/>
+      <c r="P73" s="129"/>
+      <c r="Q73" s="129"/>
+      <c r="R73" s="129"/>
+      <c r="S73" s="129"/>
+    </row>
+    <row r="74" s="72" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A74" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="74" t="s">
+      <c r="B74" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="108" t="s">
+      <c r="C74" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="108"/>
-      <c r="E74" s="108"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="108"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="107"/>
-      <c r="K74" s="107"/>
-      <c r="L74" s="74"/>
-      <c r="M74" s="107"/>
-      <c r="N74" s="107"/>
-      <c r="O74" s="107"/>
-      <c r="P74" s="107"/>
-      <c r="Q74" s="107"/>
-      <c r="R74" s="107"/>
-      <c r="S74" s="107"/>
-    </row>
-    <row r="75" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A75" s="69" t="s">
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="106"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="106"/>
+      <c r="I74" s="106"/>
+      <c r="J74" s="106"/>
+      <c r="K74" s="106"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="106"/>
+      <c r="N74" s="106"/>
+      <c r="O74" s="106"/>
+      <c r="P74" s="106"/>
+      <c r="Q74" s="106"/>
+      <c r="R74" s="106"/>
+      <c r="S74" s="106"/>
+    </row>
+    <row r="75" s="77" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A75" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="90" t="s">
+      <c r="B75" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="C75" s="128" t="s">
+      <c r="C75" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="130"/>
-      <c r="G75" s="127"/>
-      <c r="H75" s="130"/>
-      <c r="I75" s="130"/>
-      <c r="J75" s="130"/>
-      <c r="K75" s="130" t="s">
+      <c r="D75" s="126"/>
+      <c r="E75" s="126"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="126"/>
+      <c r="H75" s="129"/>
+      <c r="I75" s="129"/>
+      <c r="J75" s="129"/>
+      <c r="K75" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="L75" s="69"/>
-      <c r="M75" s="130"/>
-      <c r="N75" s="130"/>
-      <c r="O75" s="130"/>
-      <c r="P75" s="130"/>
-      <c r="Q75" s="130"/>
-      <c r="R75" s="130"/>
-      <c r="S75" s="130"/>
-    </row>
-    <row r="76" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A76" s="94" t="s">
+      <c r="L75" s="66"/>
+      <c r="M75" s="129"/>
+      <c r="N75" s="129"/>
+      <c r="O75" s="129"/>
+      <c r="P75" s="129"/>
+      <c r="Q75" s="129"/>
+      <c r="R75" s="129"/>
+      <c r="S75" s="129"/>
+    </row>
+    <row r="76" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A76" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="B76" s="125" t="s">
+      <c r="B76" s="124" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="74" t="s">
+      <c r="C76" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="135"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" s="135"/>
-      <c r="J76" s="135"/>
-      <c r="K76" s="135"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="135"/>
-      <c r="N76" s="135"/>
-      <c r="O76" s="135"/>
-      <c r="P76" s="135"/>
-      <c r="Q76" s="135"/>
-      <c r="R76" s="135"/>
-      <c r="S76" s="135"/>
-    </row>
-    <row r="77" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A77" s="74" t="s">
+      <c r="D76" s="125"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="143"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="143"/>
+      <c r="J76" s="143"/>
+      <c r="K76" s="143"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="143"/>
+      <c r="N76" s="143"/>
+      <c r="O76" s="143"/>
+      <c r="P76" s="143"/>
+      <c r="Q76" s="143"/>
+      <c r="R76" s="143"/>
+      <c r="S76" s="143"/>
+    </row>
+    <row r="77" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A77" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="107" t="s">
+      <c r="B77" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="C77" s="108" t="s">
+      <c r="C77" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="D77" s="126"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="135"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77" s="135"/>
-      <c r="J77" s="135"/>
-      <c r="K77" s="136" t="s">
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="143"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="143"/>
+      <c r="J77" s="143"/>
+      <c r="K77" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="L77" s="74"/>
-      <c r="M77" s="135"/>
-      <c r="N77" s="135"/>
-      <c r="O77" s="135"/>
-      <c r="P77" s="135"/>
-      <c r="Q77" s="135"/>
-      <c r="R77" s="135"/>
-      <c r="S77" s="135"/>
-    </row>
-    <row r="78" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A78" s="74" t="s">
+      <c r="L77" s="71"/>
+      <c r="M77" s="143"/>
+      <c r="N77" s="143"/>
+      <c r="O77" s="143"/>
+      <c r="P77" s="143"/>
+      <c r="Q77" s="143"/>
+      <c r="R77" s="143"/>
+      <c r="S77" s="143"/>
+    </row>
+    <row r="78" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A78" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="B78" s="107" t="s">
+      <c r="B78" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="C78" s="108" t="s">
+      <c r="C78" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="D78" s="126"/>
-      <c r="E78" s="126"/>
-      <c r="F78" s="135"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" s="135"/>
-      <c r="J78" s="135"/>
-      <c r="K78" s="107" t="s">
+      <c r="D78" s="125"/>
+      <c r="E78" s="125"/>
+      <c r="F78" s="143"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="143"/>
+      <c r="J78" s="143"/>
+      <c r="K78" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="L78" s="74"/>
-      <c r="M78" s="135"/>
-      <c r="N78" s="135"/>
-      <c r="O78" s="135"/>
-      <c r="P78" s="135"/>
-      <c r="Q78" s="135"/>
-      <c r="R78" s="135"/>
-      <c r="S78" s="135"/>
-    </row>
-    <row r="79" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A79" s="74" t="s">
+      <c r="L78" s="71"/>
+      <c r="M78" s="143"/>
+      <c r="N78" s="143"/>
+      <c r="O78" s="143"/>
+      <c r="P78" s="143"/>
+      <c r="Q78" s="143"/>
+      <c r="R78" s="143"/>
+      <c r="S78" s="143"/>
+    </row>
+    <row r="79" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A79" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="107" t="s">
+      <c r="B79" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="108" t="s">
+      <c r="C79" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="126"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="135"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I79" s="135"/>
-      <c r="J79" s="135"/>
-      <c r="K79" s="136" t="s">
+      <c r="D79" s="125"/>
+      <c r="E79" s="125"/>
+      <c r="F79" s="143"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" s="143"/>
+      <c r="J79" s="143"/>
+      <c r="K79" s="144" t="s">
         <v>233</v>
       </c>
-      <c r="L79" s="74"/>
-      <c r="M79" s="135"/>
-      <c r="N79" s="135"/>
-      <c r="O79" s="135"/>
-      <c r="P79" s="135"/>
-      <c r="Q79" s="135"/>
-      <c r="R79" s="135"/>
-      <c r="S79" s="135"/>
-    </row>
-    <row r="80" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A80" s="74" t="s">
+      <c r="L79" s="71"/>
+      <c r="M79" s="143"/>
+      <c r="N79" s="143"/>
+      <c r="O79" s="143"/>
+      <c r="P79" s="143"/>
+      <c r="Q79" s="143"/>
+      <c r="R79" s="143"/>
+      <c r="S79" s="143"/>
+    </row>
+    <row r="80" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A80" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="107" t="s">
+      <c r="B80" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="C80" s="129" t="s">
+      <c r="C80" s="128" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="126" t="s">
+      <c r="D80" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="E80" s="126"/>
-      <c r="F80" s="135"/>
-      <c r="G80" s="126"/>
-      <c r="H80" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" s="135"/>
-      <c r="J80" s="135"/>
-      <c r="K80" s="107" t="s">
+      <c r="E80" s="125"/>
+      <c r="F80" s="143"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" s="143"/>
+      <c r="J80" s="143"/>
+      <c r="K80" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="L80" s="74"/>
-      <c r="M80" s="135"/>
-      <c r="N80" s="135"/>
-      <c r="O80" s="135"/>
-      <c r="P80" s="135"/>
-      <c r="Q80" s="135"/>
-      <c r="R80" s="135"/>
-      <c r="S80" s="135"/>
-    </row>
-    <row r="81" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A81" s="74" t="s">
+      <c r="L80" s="71"/>
+      <c r="M80" s="143"/>
+      <c r="N80" s="143"/>
+      <c r="O80" s="143"/>
+      <c r="P80" s="143"/>
+      <c r="Q80" s="143"/>
+      <c r="R80" s="143"/>
+      <c r="S80" s="143"/>
+    </row>
+    <row r="81" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A81" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="108" t="s">
+      <c r="B81" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="129" t="s">
+      <c r="C81" s="128" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="126" t="s">
+      <c r="D81" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="E81" s="126"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="126"/>
-      <c r="H81" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" s="135"/>
-      <c r="J81" s="135"/>
-      <c r="K81" s="107" t="s">
+      <c r="E81" s="125"/>
+      <c r="F81" s="143"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" s="143"/>
+      <c r="J81" s="143"/>
+      <c r="K81" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="L81" s="74"/>
-      <c r="M81" s="135"/>
-      <c r="N81" s="135"/>
-      <c r="O81" s="135"/>
-      <c r="P81" s="135"/>
-      <c r="Q81" s="135"/>
-      <c r="R81" s="135"/>
-      <c r="S81" s="135"/>
-    </row>
-    <row r="82" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A82" s="74" t="s">
+      <c r="L81" s="71"/>
+      <c r="M81" s="143"/>
+      <c r="N81" s="143"/>
+      <c r="O81" s="143"/>
+      <c r="P81" s="143"/>
+      <c r="Q81" s="143"/>
+      <c r="R81" s="143"/>
+      <c r="S81" s="143"/>
+    </row>
+    <row r="82" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A82" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="107" t="s">
+      <c r="B82" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="C82" s="129" t="s">
+      <c r="C82" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="D82" s="126" t="s">
+      <c r="D82" s="125" t="s">
         <v>242</v>
       </c>
-      <c r="E82" s="126"/>
-      <c r="F82" s="135"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" s="135"/>
-      <c r="J82" s="135"/>
-      <c r="K82" s="107" t="s">
+      <c r="E82" s="125"/>
+      <c r="F82" s="143"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" s="143"/>
+      <c r="J82" s="143"/>
+      <c r="K82" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="L82" s="74"/>
-      <c r="M82" s="135"/>
-      <c r="N82" s="135"/>
-      <c r="O82" s="135"/>
-      <c r="P82" s="135"/>
-      <c r="Q82" s="135"/>
-      <c r="R82" s="135"/>
-      <c r="S82" s="135"/>
-    </row>
-    <row r="83" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A83" s="100" t="s">
+      <c r="L82" s="71"/>
+      <c r="M82" s="143"/>
+      <c r="N82" s="143"/>
+      <c r="O82" s="143"/>
+      <c r="P82" s="143"/>
+      <c r="Q82" s="143"/>
+      <c r="R82" s="143"/>
+      <c r="S82" s="143"/>
+    </row>
+    <row r="83" s="77" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A83" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="130"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="130"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="130"/>
-      <c r="I83" s="130"/>
-      <c r="J83" s="130"/>
-      <c r="K83" s="130"/>
-      <c r="L83" s="69"/>
-      <c r="M83" s="130"/>
-      <c r="N83" s="130"/>
-      <c r="O83" s="130"/>
-      <c r="P83" s="130"/>
-      <c r="Q83" s="130"/>
-      <c r="R83" s="130"/>
-      <c r="S83" s="130"/>
-    </row>
-    <row r="84" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A84" s="69" t="s">
+      <c r="B83" s="129"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="129"/>
+      <c r="G83" s="126"/>
+      <c r="H83" s="129"/>
+      <c r="I83" s="129"/>
+      <c r="J83" s="129"/>
+      <c r="K83" s="129"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="129"/>
+      <c r="N83" s="129"/>
+      <c r="O83" s="129"/>
+      <c r="P83" s="129"/>
+      <c r="Q83" s="129"/>
+      <c r="R83" s="129"/>
+      <c r="S83" s="129"/>
+    </row>
+    <row r="84" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A84" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="90" t="s">
+      <c r="B84" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="128" t="s">
+      <c r="C84" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="130"/>
-      <c r="G84" s="127"/>
-      <c r="H84" s="130"/>
-      <c r="I84" s="130"/>
-      <c r="J84" s="130"/>
-      <c r="K84" s="130"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="130"/>
-      <c r="N84" s="130"/>
-      <c r="O84" s="130"/>
-      <c r="P84" s="130"/>
-      <c r="Q84" s="130"/>
-      <c r="R84" s="130"/>
-      <c r="S84" s="130"/>
-    </row>
-    <row r="85" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A85" s="105" t="s">
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="138"/>
+      <c r="G84" s="133"/>
+      <c r="H84" s="138"/>
+      <c r="I84" s="138"/>
+      <c r="J84" s="138"/>
+      <c r="K84" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="L84" s="130"/>
+      <c r="M84" s="138"/>
+      <c r="N84" s="138"/>
+      <c r="O84" s="138"/>
+      <c r="P84" s="138"/>
+      <c r="Q84" s="138"/>
+      <c r="R84" s="138"/>
+      <c r="S84" s="138"/>
+    </row>
+    <row r="85" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A85" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B85" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="C85" s="124" t="s">
+      <c r="B85" s="135" t="s">
         <v>247</v>
       </c>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="123"/>
-      <c r="G85" s="124"/>
-      <c r="H85" s="123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" s="123"/>
-      <c r="J85" s="123"/>
-      <c r="K85" s="123"/>
-      <c r="L85" s="85"/>
-      <c r="M85" s="123"/>
-      <c r="N85" s="123"/>
-      <c r="O85" s="123"/>
-      <c r="P85" s="123"/>
-      <c r="Q85" s="123"/>
-      <c r="R85" s="123"/>
-      <c r="S85" s="123"/>
-    </row>
-    <row r="86" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A86" s="105" t="s">
+      <c r="C85" s="136" t="s">
         <v>248</v>
       </c>
-      <c r="B86" s="123" t="s">
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="135"/>
+      <c r="G85" s="136"/>
+      <c r="H85" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" s="135"/>
+      <c r="J85" s="135"/>
+      <c r="K85" s="135"/>
+      <c r="L85" s="146"/>
+      <c r="M85" s="135"/>
+      <c r="N85" s="135"/>
+      <c r="O85" s="135"/>
+      <c r="P85" s="135"/>
+      <c r="Q85" s="135"/>
+      <c r="R85" s="135"/>
+      <c r="S85" s="135"/>
+    </row>
+    <row r="86" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A86" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="124" t="s">
+      <c r="B86" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="123"/>
-      <c r="G86" s="124"/>
-      <c r="H86" s="123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" s="123"/>
-      <c r="J86" s="123"/>
-      <c r="K86" s="107" t="s">
+      <c r="C86" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="L86" s="85"/>
-      <c r="M86" s="123"/>
-      <c r="N86" s="123"/>
-      <c r="O86" s="123"/>
-      <c r="P86" s="123"/>
-      <c r="Q86" s="123"/>
-      <c r="R86" s="123"/>
-      <c r="S86" s="123"/>
-    </row>
-    <row r="87" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A87" s="105" t="s">
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="135"/>
+      <c r="G86" s="136"/>
+      <c r="H86" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="135"/>
+      <c r="J86" s="135"/>
+      <c r="K86" s="147" t="s">
+        <v>252</v>
+      </c>
+      <c r="L86" s="146"/>
+      <c r="M86" s="135"/>
+      <c r="N86" s="135"/>
+      <c r="O86" s="135"/>
+      <c r="P86" s="135"/>
+      <c r="Q86" s="135"/>
+      <c r="R86" s="135"/>
+      <c r="S86" s="135"/>
+    </row>
+    <row r="87" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A87" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="123" t="s">
-        <v>252</v>
-      </c>
-      <c r="C87" s="124" t="s">
+      <c r="B87" s="135" t="s">
         <v>253</v>
       </c>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
-      <c r="F87" s="123"/>
-      <c r="G87" s="124"/>
-      <c r="H87" s="123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87" s="123"/>
-      <c r="J87" s="123"/>
-      <c r="K87" s="107" t="s">
+      <c r="C87" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="L87" s="85"/>
-      <c r="M87" s="123"/>
-      <c r="N87" s="123"/>
-      <c r="O87" s="123"/>
-      <c r="P87" s="123"/>
-      <c r="Q87" s="123"/>
-      <c r="R87" s="123"/>
-      <c r="S87" s="123"/>
-    </row>
-    <row r="88" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A88" s="105" t="s">
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="135"/>
+      <c r="G87" s="136"/>
+      <c r="H87" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" s="135"/>
+      <c r="J87" s="135"/>
+      <c r="K87" s="147" t="s">
+        <v>255</v>
+      </c>
+      <c r="L87" s="146"/>
+      <c r="M87" s="135"/>
+      <c r="N87" s="135"/>
+      <c r="O87" s="135"/>
+      <c r="P87" s="135"/>
+      <c r="Q87" s="135"/>
+      <c r="R87" s="135"/>
+      <c r="S87" s="135"/>
+    </row>
+    <row r="88" s="79" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A88" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="123" t="s">
-        <v>255</v>
-      </c>
-      <c r="C88" s="124" t="s">
+      <c r="B88" s="135" t="s">
         <v>256</v>
       </c>
-      <c r="D88" s="124"/>
-      <c r="E88" s="124"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" s="123"/>
-      <c r="J88" s="123"/>
-      <c r="K88" s="107" t="s">
+      <c r="C88" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="L88" s="85"/>
-      <c r="M88" s="123"/>
-      <c r="N88" s="123"/>
-      <c r="O88" s="123"/>
-      <c r="P88" s="123"/>
-      <c r="Q88" s="123"/>
-      <c r="R88" s="123"/>
-      <c r="S88" s="123"/>
-    </row>
-    <row r="89" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A89" s="100" t="s">
+      <c r="D88" s="136"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="135"/>
+      <c r="G88" s="136"/>
+      <c r="H88" s="135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" s="135"/>
+      <c r="J88" s="135"/>
+      <c r="K88" s="147" t="s">
+        <v>258</v>
+      </c>
+      <c r="L88" s="146"/>
+      <c r="M88" s="135"/>
+      <c r="N88" s="135"/>
+      <c r="O88" s="135"/>
+      <c r="P88" s="135"/>
+      <c r="Q88" s="135"/>
+      <c r="R88" s="135"/>
+      <c r="S88" s="135"/>
+    </row>
+    <row r="89" s="78" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A89" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="130"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="130"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="130"/>
-      <c r="I89" s="130"/>
-      <c r="J89" s="130"/>
-      <c r="K89" s="130"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="130"/>
-      <c r="N89" s="130"/>
-      <c r="O89" s="130"/>
-      <c r="P89" s="130"/>
-      <c r="Q89" s="130"/>
-      <c r="R89" s="130"/>
-      <c r="S89" s="130"/>
-    </row>
-    <row r="90" s="81" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A90" s="131" t="s">
+      <c r="B89" s="138"/>
+      <c r="C89" s="133"/>
+      <c r="D89" s="133"/>
+      <c r="E89" s="133"/>
+      <c r="F89" s="138"/>
+      <c r="G89" s="133"/>
+      <c r="H89" s="138"/>
+      <c r="I89" s="138"/>
+      <c r="J89" s="138"/>
+      <c r="K89" s="138"/>
+      <c r="L89" s="130"/>
+      <c r="M89" s="138"/>
+      <c r="N89" s="138"/>
+      <c r="O89" s="138"/>
+      <c r="P89" s="138"/>
+      <c r="Q89" s="138"/>
+      <c r="R89" s="138"/>
+      <c r="S89" s="138"/>
+    </row>
+    <row r="90" s="80" customFormat="1" ht="14.25" customHeight="1" spans="1:19">
+      <c r="A90" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="123" t="s">
-        <v>258</v>
-      </c>
-      <c r="C90" s="124" t="s">
+      <c r="B90" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="D90" s="132" t="s">
-        <v>259</v>
-      </c>
-      <c r="E90" s="132" t="s">
-        <v>259</v>
-      </c>
-      <c r="F90" s="131"/>
-      <c r="G90" s="132"/>
-      <c r="H90" s="131"/>
-      <c r="I90" s="131"/>
-      <c r="J90" s="131"/>
-      <c r="K90" s="131"/>
-      <c r="L90" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="M90" s="131"/>
-      <c r="N90" s="131"/>
-      <c r="O90" s="131"/>
-      <c r="P90" s="131"/>
-      <c r="Q90" s="131"/>
-      <c r="R90" s="131"/>
-      <c r="S90" s="131"/>
-    </row>
-    <row r="91" s="81" customFormat="1" ht="15" customHeight="1" spans="1:19">
-      <c r="A91" s="131" t="s">
+      <c r="C90" s="123" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="140" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90" s="140" t="s">
+        <v>260</v>
+      </c>
+      <c r="F90" s="139"/>
+      <c r="G90" s="140"/>
+      <c r="H90" s="139"/>
+      <c r="I90" s="139"/>
+      <c r="J90" s="139"/>
+      <c r="K90" s="139"/>
+      <c r="L90" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" s="139"/>
+      <c r="N90" s="139"/>
+      <c r="O90" s="139"/>
+      <c r="P90" s="139"/>
+      <c r="Q90" s="139"/>
+      <c r="R90" s="139"/>
+      <c r="S90" s="139"/>
+    </row>
+    <row r="91" s="80" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A91" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="123" t="s">
+      <c r="B91" s="122" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="123" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="C91" s="124" t="s">
-        <v>261</v>
-      </c>
-      <c r="D91" s="132" t="s">
-        <v>259</v>
-      </c>
-      <c r="E91" s="132" t="s">
-        <v>259</v>
-      </c>
-      <c r="F91" s="131"/>
-      <c r="G91" s="132"/>
-      <c r="H91" s="131"/>
-      <c r="I91" s="131"/>
-      <c r="J91" s="131"/>
-      <c r="K91" s="131"/>
-      <c r="L91" s="131" t="b">
-        <v>1</v>
-      </c>
-      <c r="M91" s="131"/>
-      <c r="N91" s="131"/>
-      <c r="O91" s="131"/>
-      <c r="P91" s="131"/>
-      <c r="Q91" s="131"/>
-      <c r="R91" s="131"/>
-      <c r="S91" s="131"/>
-    </row>
-    <row r="92" s="67" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A92" s="85"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="133"/>
-      <c r="E92" s="133"/>
-      <c r="G92" s="133"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="85"/>
-    </row>
-    <row r="93" s="67" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A93" s="85"/>
-      <c r="C93" s="133"/>
-      <c r="D93" s="133"/>
-      <c r="E93" s="133"/>
-      <c r="G93" s="133"/>
-    </row>
-    <row r="94" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C94" s="134"/>
-      <c r="D94" s="134"/>
-      <c r="E94" s="134"/>
-      <c r="G94" s="134"/>
-    </row>
-    <row r="95" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C95" s="134"/>
-      <c r="D95" s="134"/>
-      <c r="E95" s="134"/>
-      <c r="G95" s="134"/>
-    </row>
-    <row r="96" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C96" s="134"/>
-      <c r="D96" s="134"/>
-      <c r="E96" s="134"/>
-      <c r="G96" s="134"/>
-    </row>
-    <row r="97" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C97" s="134"/>
-      <c r="D97" s="134"/>
-      <c r="E97" s="134"/>
-      <c r="G97" s="134"/>
-    </row>
-    <row r="98" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C98" s="134"/>
-      <c r="D98" s="134"/>
-      <c r="E98" s="134"/>
-      <c r="G98" s="134"/>
-    </row>
-    <row r="99" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C99" s="134"/>
-      <c r="D99" s="134"/>
-      <c r="E99" s="134"/>
-      <c r="G99" s="134"/>
-    </row>
-    <row r="100" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C100" s="134"/>
-      <c r="D100" s="134"/>
-      <c r="E100" s="134"/>
-      <c r="G100" s="134"/>
-    </row>
-    <row r="101" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C101" s="134"/>
-      <c r="D101" s="134"/>
-      <c r="E101" s="134"/>
-      <c r="G101" s="134"/>
-    </row>
-    <row r="102" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C102" s="134"/>
-      <c r="D102" s="134"/>
-      <c r="E102" s="134"/>
-      <c r="G102" s="134"/>
-    </row>
-    <row r="103" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C103" s="134"/>
-      <c r="D103" s="134"/>
-      <c r="E103" s="134"/>
-      <c r="G103" s="134"/>
-    </row>
-    <row r="104" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C104" s="134"/>
-      <c r="D104" s="134"/>
-      <c r="E104" s="134"/>
-      <c r="G104" s="134"/>
-    </row>
-    <row r="105" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C105" s="134"/>
-      <c r="D105" s="134"/>
-      <c r="E105" s="134"/>
-      <c r="G105" s="134"/>
-    </row>
-    <row r="106" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C106" s="134"/>
-      <c r="D106" s="134"/>
-      <c r="E106" s="134"/>
-      <c r="G106" s="134"/>
-    </row>
-    <row r="107" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C107" s="134"/>
-      <c r="D107" s="134"/>
-      <c r="E107" s="134"/>
-      <c r="G107" s="134"/>
-    </row>
-    <row r="108" s="66" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C108" s="134"/>
-      <c r="D108" s="134"/>
-      <c r="E108" s="134"/>
-      <c r="G108" s="134"/>
+      <c r="E91" s="140" t="s">
+        <v>260</v>
+      </c>
+      <c r="F91" s="139"/>
+      <c r="G91" s="140"/>
+      <c r="H91" s="139"/>
+      <c r="I91" s="139"/>
+      <c r="J91" s="139"/>
+      <c r="K91" s="139"/>
+      <c r="L91" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" s="139"/>
+      <c r="N91" s="139"/>
+      <c r="O91" s="139"/>
+      <c r="P91" s="139"/>
+      <c r="Q91" s="139"/>
+      <c r="R91" s="139"/>
+      <c r="S91" s="139"/>
+    </row>
+    <row r="92" s="64" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+      <c r="A92" s="84"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="141"/>
+      <c r="E92" s="141"/>
+      <c r="G92" s="141"/>
+      <c r="L92" s="84"/>
+      <c r="M92" s="84"/>
+      <c r="N92" s="84"/>
+    </row>
+    <row r="93" s="64" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A93" s="84"/>
+      <c r="C93" s="141"/>
+      <c r="D93" s="141"/>
+      <c r="E93" s="141"/>
+      <c r="G93" s="141"/>
+    </row>
+    <row r="94" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C94" s="142"/>
+      <c r="D94" s="142"/>
+      <c r="E94" s="142"/>
+      <c r="G94" s="142"/>
+    </row>
+    <row r="95" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C95" s="142"/>
+      <c r="D95" s="142"/>
+      <c r="E95" s="142"/>
+      <c r="G95" s="142"/>
+    </row>
+    <row r="96" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C96" s="142"/>
+      <c r="D96" s="142"/>
+      <c r="E96" s="142"/>
+      <c r="G96" s="142"/>
+    </row>
+    <row r="97" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C97" s="142"/>
+      <c r="D97" s="142"/>
+      <c r="E97" s="142"/>
+      <c r="G97" s="142"/>
+    </row>
+    <row r="98" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C98" s="142"/>
+      <c r="D98" s="142"/>
+      <c r="E98" s="142"/>
+      <c r="G98" s="142"/>
+    </row>
+    <row r="99" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C99" s="142"/>
+      <c r="D99" s="142"/>
+      <c r="E99" s="142"/>
+      <c r="G99" s="142"/>
+    </row>
+    <row r="100" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C100" s="142"/>
+      <c r="D100" s="142"/>
+      <c r="E100" s="142"/>
+      <c r="G100" s="142"/>
+    </row>
+    <row r="101" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C101" s="142"/>
+      <c r="D101" s="142"/>
+      <c r="E101" s="142"/>
+      <c r="G101" s="142"/>
+    </row>
+    <row r="102" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C102" s="142"/>
+      <c r="D102" s="142"/>
+      <c r="E102" s="142"/>
+      <c r="G102" s="142"/>
+    </row>
+    <row r="103" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C103" s="142"/>
+      <c r="D103" s="142"/>
+      <c r="E103" s="142"/>
+      <c r="G103" s="142"/>
+    </row>
+    <row r="104" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C104" s="142"/>
+      <c r="D104" s="142"/>
+      <c r="E104" s="142"/>
+      <c r="G104" s="142"/>
+    </row>
+    <row r="105" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C105" s="142"/>
+      <c r="D105" s="142"/>
+      <c r="E105" s="142"/>
+      <c r="G105" s="142"/>
+    </row>
+    <row r="106" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C106" s="142"/>
+      <c r="D106" s="142"/>
+      <c r="E106" s="142"/>
+      <c r="G106" s="142"/>
+    </row>
+    <row r="107" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C107" s="142"/>
+      <c r="D107" s="142"/>
+      <c r="E107" s="142"/>
+      <c r="G107" s="142"/>
+    </row>
+    <row r="108" s="63" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C108" s="142"/>
+      <c r="D108" s="142"/>
+      <c r="E108" s="142"/>
+      <c r="G108" s="142"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5779,21 +5873,21 @@
   <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7083333333333" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="13.7047619047619" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="29.1354166666667" customWidth="1"/>
-    <col min="2" max="2" width="10.7083333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="83.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.7047619047619" style="10" customWidth="1"/>
+    <col min="3" max="3" width="83.7047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -5804,607 +5898,607 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B3" s="12">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B6" s="12">
         <v>99</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B8" s="12">
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B9" s="12">
         <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B12" s="12">
         <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B13" s="12">
         <v>4</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B14" s="12">
         <v>5</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B15" s="13">
         <v>98</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B17" s="12">
         <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B18" s="12">
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B19" s="12">
         <v>4</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B20" s="12">
         <v>5</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B21" s="12">
         <v>6</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B22" s="12">
         <v>7</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B24" s="12">
         <v>1</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B25" s="12">
         <v>2</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B26" s="12">
         <v>3</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B27" s="12">
         <v>4</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B28" s="12">
         <v>5</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
       <c r="A29" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>285</v>
-      </c>
       <c r="C29" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
       <c r="A30" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B30" s="12">
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:3">
       <c r="A31" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B31" s="12">
         <v>2</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
       <c r="A32" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B32" s="12">
         <v>3</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
       <c r="A33" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" s="12">
         <v>4</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:3">
       <c r="A34" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" s="12">
         <v>5</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B35" s="12">
         <v>6</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A37" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B37" s="15">
         <v>1</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
       <c r="A38" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B38" s="12">
         <v>2</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:3">
       <c r="A39" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B39" s="12">
         <v>3</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A40" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" s="18">
         <v>4</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A41" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:3">
       <c r="A42" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B42" s="12">
         <v>2</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:3">
       <c r="A43" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" s="12">
         <v>3</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:3">
       <c r="A44" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B44" s="12">
         <v>4</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:3">
       <c r="A45" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B45" s="12">
         <v>5</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:3">
       <c r="A46" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B46" s="12">
         <v>7</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A47" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A48" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B48" s="15">
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
       <c r="A49" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B49" s="12">
         <v>2</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
       <c r="A50" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B50" s="12">
         <v>3</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
       <c r="A51" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B51" s="12">
         <v>4</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B52" s="12">
         <v>5</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B53" s="12">
         <v>6</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
       <c r="A54" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B54" s="12">
         <v>7</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
       <c r="A55" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B55" s="12">
         <v>8</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A56" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -6415,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
@@ -6426,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
@@ -6437,7 +6531,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
@@ -6448,7 +6542,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
@@ -6459,7 +6553,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
@@ -6470,7 +6564,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
@@ -6481,7 +6575,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1" customHeight="1" spans="1:3">
@@ -6489,879 +6583,879 @@
         <v>134</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A65" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B65" s="26">
         <v>1</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A66" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B66" s="26">
         <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A67" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B67" s="26">
         <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A68" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B68" s="26">
         <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A69" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B69" s="26">
         <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A70" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B70" s="26">
         <v>6</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A71" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B71" s="26">
         <v>7</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A72" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B72" s="21">
         <v>8</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A73" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B73" s="26">
         <v>98</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A74" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B74" s="29">
         <v>1</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A75" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B75" s="26">
         <v>2</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A76" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B76" s="26">
         <v>3</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A77" s="32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B77" s="33">
         <v>4</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A78" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B78" s="35">
         <v>1</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A79" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B79" s="26">
         <v>2</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A80" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B80" s="26">
         <v>3</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A81" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B81" s="26">
         <v>4</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A82" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B82" s="26">
         <v>5</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A83" s="32" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B83" s="37">
         <v>99</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A84" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B84" s="35">
         <v>1</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A85" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B85" s="26">
         <v>2</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A86" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B86" s="26">
         <v>3</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A87" s="32" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B87" s="37">
         <v>98</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A88" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B88" s="35">
         <v>1</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A89" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B89" s="26">
         <v>2</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A90" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="B90" s="39">
+      <c r="A90" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" s="38">
         <v>3</v>
       </c>
-      <c r="C90" s="40" t="s">
-        <v>357</v>
+      <c r="C90" s="39" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A91" s="38" t="s">
-        <v>354</v>
+      <c r="A91" s="36" t="s">
+        <v>355</v>
       </c>
       <c r="B91" s="21">
         <v>98</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A92" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="B92" s="42">
+      <c r="A92" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="B92" s="41">
         <v>99</v>
       </c>
-      <c r="C92" s="43" t="s">
-        <v>267</v>
+      <c r="C92" s="42" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="93" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A93" s="36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B93" s="35">
         <v>1</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A94" s="36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B94" s="26">
         <v>2</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A95" s="36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B95" s="26">
         <v>3</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A96" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="B96" s="45">
-        <v>1</v>
-      </c>
-      <c r="C96" s="46" t="s">
+      <c r="A96" s="43" t="s">
         <v>363</v>
       </c>
+      <c r="B96" s="44">
+        <v>1</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="97" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A97" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="B97" s="48">
+      <c r="A97" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B97" s="38">
         <v>2</v>
       </c>
-      <c r="C97" s="49" t="s">
-        <v>364</v>
+      <c r="C97" s="39" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="98" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A98" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="B98" s="48">
+      <c r="A98" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B98" s="38">
         <v>3</v>
       </c>
-      <c r="C98" s="49" t="s">
-        <v>365</v>
+      <c r="C98" s="39" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="99" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A99" s="50" t="s">
-        <v>362</v>
+      <c r="A99" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="B99" s="33">
         <v>4</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A100" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="B100" s="48">
-        <v>1</v>
-      </c>
-      <c r="C100" s="49" t="s">
+      <c r="A100" s="46" t="s">
         <v>368</v>
       </c>
+      <c r="B100" s="38">
+        <v>1</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="101" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A101" s="47" t="s">
-        <v>367</v>
+      <c r="A101" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B101" s="26">
         <v>2</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A102" s="47" t="s">
-        <v>367</v>
+      <c r="A102" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B102" s="26">
         <v>3</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A103" s="47" t="s">
-        <v>367</v>
+      <c r="A103" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B103" s="26">
         <v>4</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A104" s="47" t="s">
-        <v>367</v>
+      <c r="A104" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B104" s="26">
         <v>5</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A105" s="47" t="s">
-        <v>367</v>
+      <c r="A105" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B105" s="26">
         <v>6</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A106" s="50" t="s">
-        <v>367</v>
+      <c r="A106" s="47" t="s">
+        <v>368</v>
       </c>
       <c r="B106" s="33">
         <v>7</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A107" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B107" s="26">
         <v>1</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A108" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B108" s="26">
         <v>2</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A109" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B109" s="26">
         <v>3</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A110" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B110" s="26">
         <v>4</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A111" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B111" s="26">
         <v>5</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A112" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B112" s="21">
         <v>98</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="113" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A113" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="B113" s="45">
-        <v>1</v>
-      </c>
-      <c r="C113" s="46" t="s">
-        <v>378</v>
+      <c r="A113" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="B113" s="44">
+        <v>1</v>
+      </c>
+      <c r="C113" s="45" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A114" s="44" t="s">
-        <v>381</v>
+      <c r="A114" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="B114" s="26">
         <v>2</v>
       </c>
       <c r="C114" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="115" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A115" s="43" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="115" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A115" s="44" t="s">
-        <v>381</v>
       </c>
       <c r="B115" s="26">
         <v>3</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A116" s="44" t="s">
-        <v>381</v>
+      <c r="A116" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="B116" s="26">
         <v>4</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A117" s="44" t="s">
-        <v>381</v>
+      <c r="A117" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="B117" s="26">
         <v>5</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A118" s="44" t="s">
-        <v>381</v>
+      <c r="A118" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="B118" s="26">
         <v>6</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A119" s="44" t="s">
-        <v>381</v>
+      <c r="A119" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="B119" s="26">
         <v>7</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A120" s="44" t="s">
-        <v>381</v>
+      <c r="A120" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="B120" s="37">
         <v>98</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A121" s="51" t="s">
-        <v>388</v>
-      </c>
-      <c r="B121" s="52">
-        <v>1</v>
-      </c>
-      <c r="C121" s="51" t="s">
+      <c r="A121" s="48" t="s">
         <v>389</v>
       </c>
+      <c r="B121" s="49">
+        <v>1</v>
+      </c>
+      <c r="C121" s="48" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="122" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A122" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="B122" s="54">
+      <c r="A122" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="B122" s="51">
         <v>2</v>
       </c>
-      <c r="C122" s="55" t="s">
-        <v>390</v>
+      <c r="C122" s="52" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A123" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="B123" s="54">
+      <c r="A123" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" s="51">
         <v>3</v>
       </c>
-      <c r="C123" s="55" t="s">
-        <v>391</v>
+      <c r="C123" s="52" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A124" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="B124" s="54">
+      <c r="A124" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="B124" s="51">
         <v>4</v>
       </c>
-      <c r="C124" s="55" t="s">
-        <v>392</v>
+      <c r="C124" s="52" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A125" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="B125" s="56">
+      <c r="A125" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="B125" s="53">
         <v>98</v>
       </c>
-      <c r="C125" s="55" t="s">
-        <v>393</v>
+      <c r="C125" s="52" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="126" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A126" s="57" t="s">
-        <v>394</v>
-      </c>
-      <c r="B126" s="58">
-        <v>1</v>
-      </c>
-      <c r="C126" s="59" t="s">
+      <c r="A126" s="54" t="s">
         <v>395</v>
       </c>
+      <c r="B126" s="55">
+        <v>1</v>
+      </c>
+      <c r="C126" s="56" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="127" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A127" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="B127" s="54">
+      <c r="A127" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="B127" s="51">
         <v>2</v>
       </c>
-      <c r="C127" s="53" t="s">
-        <v>396</v>
+      <c r="C127" s="50" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="128" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A128" s="57" t="s">
-        <v>397</v>
-      </c>
-      <c r="B128" s="58">
-        <v>1</v>
-      </c>
-      <c r="C128" s="59" t="s">
-        <v>264</v>
+      <c r="A128" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="B128" s="55">
+        <v>1</v>
+      </c>
+      <c r="C128" s="56" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A129" s="57" t="s">
-        <v>397</v>
+      <c r="A129" s="54" t="s">
+        <v>398</v>
       </c>
       <c r="B129" s="26">
         <v>2</v>
       </c>
-      <c r="C129" s="55" t="s">
+      <c r="C129" s="52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" s="9" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A130" s="54" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="130" s="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A130" s="57" t="s">
-        <v>397</v>
-      </c>
-      <c r="B130" s="61">
+      <c r="B130" s="58">
         <v>99</v>
       </c>
-      <c r="C130" s="53" t="s">
-        <v>269</v>
+      <c r="C130" s="50" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="131" s="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A131" s="44" t="s">
+      <c r="A131" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="B131" s="45">
-        <v>1</v>
-      </c>
-      <c r="C131" s="59" t="s">
-        <v>399</v>
+      <c r="B131" s="44">
+        <v>1</v>
+      </c>
+      <c r="C131" s="56" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A132" s="47" t="s">
+      <c r="A132" s="46" t="s">
         <v>177</v>
       </c>
       <c r="B132" s="26">
         <v>2</v>
       </c>
-      <c r="C132" s="55" t="s">
-        <v>400</v>
+      <c r="C132" s="52" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A133" s="47" t="s">
+      <c r="A133" s="46" t="s">
         <v>177</v>
       </c>
       <c r="B133" s="26">
         <v>3</v>
       </c>
-      <c r="C133" s="55" t="s">
-        <v>401</v>
+      <c r="C133" s="52" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A134" s="47" t="s">
+      <c r="A134" s="46" t="s">
         <v>177</v>
       </c>
       <c r="B134" s="26">
         <v>4</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A135" s="50" t="s">
+      <c r="A135" s="47" t="s">
         <v>177</v>
       </c>
       <c r="B135" s="37">
         <v>98</v>
       </c>
-      <c r="C135" s="62" t="s">
-        <v>313</v>
+      <c r="C135" s="59" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A136" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B136" s="63">
+        <v>404</v>
+      </c>
+      <c r="B136" s="60">
         <v>1</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B137" s="63">
+        <v>404</v>
+      </c>
+      <c r="B137" s="60">
         <v>2</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A138" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B138" s="63">
+        <v>404</v>
+      </c>
+      <c r="B138" s="60">
         <v>3</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:3">
-      <c r="A140" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="B140" s="65">
-        <v>1</v>
-      </c>
-      <c r="C140" s="64" t="s">
+      <c r="A140" s="61" t="s">
         <v>407</v>
       </c>
+      <c r="B140" s="62">
+        <v>1</v>
+      </c>
+      <c r="C140" s="61" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="141" customHeight="1" spans="1:3">
-      <c r="A141" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="B141" s="65">
+      <c r="A141" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="B141" s="62">
         <v>2</v>
       </c>
-      <c r="C141" s="64" t="s">
-        <v>408</v>
+      <c r="C141" s="61" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:3">
-      <c r="A142" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="B142" s="65">
+      <c r="A142" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="B142" s="62">
         <v>3</v>
       </c>
-      <c r="C142" s="64" t="s">
-        <v>267</v>
+      <c r="C142" s="61" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:3">
-      <c r="A143" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="B143" s="65">
+      <c r="A143" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="B143" s="62">
         <v>4</v>
       </c>
-      <c r="C143" s="64" t="s">
-        <v>409</v>
+      <c r="C143" s="61" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:3">
-      <c r="A144" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="B144" s="65">
+      <c r="A144" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="B144" s="62">
         <v>99</v>
       </c>
-      <c r="C144" s="64" t="s">
-        <v>410</v>
+      <c r="C144" s="61" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="170" ht="13.5" customHeight="1"/>
@@ -7382,33 +7476,33 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42708333333333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.7083333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.2916666666667" customWidth="1"/>
-    <col min="3" max="3" width="36.4270833333333" customWidth="1"/>
+    <col min="1" max="1" width="24.7047619047619" customWidth="1"/>
+    <col min="2" max="2" width="23.2952380952381" customWidth="1"/>
+    <col min="3" max="3" width="36.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
